--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9885721623587905</v>
+        <v>0.9885721623587906</v>
       </c>
       <c r="D3">
         <v>1.008263398740404</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.00272488821157</v>
+        <v>1.002724888211571</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9932936512129464</v>
+        <v>0.9932936512129448</v>
       </c>
       <c r="D4">
-        <v>1.011808248334989</v>
+        <v>1.011808248334988</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.997055071207371</v>
+        <v>0.9970550712073694</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041672510699578</v>
+        <v>1.041672510699577</v>
       </c>
       <c r="J4">
-        <v>1.012870475847979</v>
+        <v>1.012870475847978</v>
       </c>
       <c r="K4">
-        <v>1.021766216970332</v>
+        <v>1.02176621697033</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.007189169355198</v>
+        <v>1.007189169355196</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9952422412128882</v>
+        <v>0.9952422412128872</v>
       </c>
       <c r="D5">
-        <v>1.013271382293382</v>
+        <v>1.013271382293381</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9991476195401154</v>
+        <v>0.9991476195401143</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042273140881443</v>
+        <v>1.042273140881442</v>
       </c>
       <c r="J5">
-        <v>1.01430974951175</v>
+        <v>1.014309749511749</v>
       </c>
       <c r="K5">
-        <v>1.022991577926424</v>
+        <v>1.022991577926423</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.009031484170002</v>
+        <v>1.009031484170001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955673506081076</v>
+        <v>0.9955673506081074</v>
       </c>
       <c r="D6">
         <v>1.013515501858325</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9994968372842282</v>
+        <v>0.999496837284228</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.042373098206006</v>
       </c>
       <c r="J6">
-        <v>1.014549789083463</v>
+        <v>1.014549789083462</v>
       </c>
       <c r="K6">
-        <v>1.023195885223883</v>
+        <v>1.023195885223882</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
         <v>1.009338854425008</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9933198282277875</v>
+        <v>0.9933198282277861</v>
       </c>
       <c r="D7">
-        <v>1.011827903384415</v>
+        <v>1.011827903384414</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9970831760867245</v>
+        <v>0.9970831760867231</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04168059650238</v>
+        <v>1.041680596502379</v>
       </c>
       <c r="J7">
-        <v>1.012889817071727</v>
+        <v>1.012889817071726</v>
       </c>
       <c r="K7">
-        <v>1.021782687364141</v>
+        <v>1.02178268736414</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.007213919203176</v>
+        <v>1.007213919203174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836112030061357</v>
+        <v>0.983611203006135</v>
       </c>
       <c r="D8">
         <v>1.004539650436709</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9866701923901482</v>
+        <v>0.9866701923901477</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038652043963898</v>
+        <v>1.038652043963897</v>
       </c>
       <c r="J8">
-        <v>1.005705731358619</v>
+        <v>1.005705731358618</v>
       </c>
       <c r="K8">
-        <v>1.015658478412468</v>
+        <v>1.015658478412467</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9980338039814718</v>
+        <v>0.9980338039814716</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9651525487067635</v>
+        <v>0.9651525487067636</v>
       </c>
       <c r="D9">
-        <v>0.9906989656794195</v>
+        <v>0.9906989656794194</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9669238843108433</v>
+        <v>0.966923884310843</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032755035487517</v>
       </c>
       <c r="J9">
-        <v>0.9919988555287778</v>
+        <v>0.9919988555287779</v>
       </c>
       <c r="K9">
         <v>1.003944769977228</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9805774064748554</v>
+        <v>0.9805774064748553</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9517531280922352</v>
+        <v>0.9517531280922362</v>
       </c>
       <c r="D10">
-        <v>0.9806735542821134</v>
+        <v>0.9806735542821141</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9526245389596651</v>
+        <v>0.9526245389596664</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028385455638149</v>
       </c>
       <c r="J10">
-        <v>0.9820209519535895</v>
+        <v>0.9820209519535905</v>
       </c>
       <c r="K10">
-        <v>0.9954007469646643</v>
+        <v>0.9954007469646651</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9679053081986121</v>
+        <v>0.9679053081986131</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9456416300528194</v>
+        <v>0.9456416300528171</v>
       </c>
       <c r="D11">
-        <v>0.9761089003989711</v>
+        <v>0.9761089003989694</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9461107290277675</v>
+        <v>0.9461107290277658</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026372903388674</v>
+        <v>1.026372903388673</v>
       </c>
       <c r="J11">
-        <v>0.977464672983011</v>
+        <v>0.977464672983009</v>
       </c>
       <c r="K11">
-        <v>0.9914958840279769</v>
+        <v>0.9914958840279752</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.962125874816562</v>
+        <v>0.9621258748165602</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9433199914226615</v>
+        <v>0.943319991422663</v>
       </c>
       <c r="D12">
-        <v>0.9743763439103291</v>
+        <v>0.9743763439103302</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9436374688510045</v>
+        <v>0.9436374688510064</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025605580234821</v>
       </c>
       <c r="J12">
-        <v>0.9757331546474003</v>
+        <v>0.9757331546474018</v>
       </c>
       <c r="K12">
-        <v>0.9900114872009106</v>
+        <v>0.9900114872009119</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9599304675837739</v>
+        <v>0.9599304675837756</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9438204137923544</v>
+        <v>0.9438204137923552</v>
       </c>
       <c r="D13">
-        <v>0.9747497205091343</v>
+        <v>0.9747497205091349</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9441705185539211</v>
+        <v>0.9441705185539219</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025771097957593</v>
       </c>
       <c r="J13">
-        <v>0.9761064066863756</v>
+        <v>0.9761064066863765</v>
       </c>
       <c r="K13">
-        <v>0.9903314873638488</v>
+        <v>0.9903314873638496</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9604036766179315</v>
+        <v>0.960403676617932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9454508065139232</v>
+        <v>0.9454508065139238</v>
       </c>
       <c r="D14">
-        <v>0.975966464191845</v>
+        <v>0.9759664641918453</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9459074188040311</v>
+        <v>0.9459074188040315</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026309890113479</v>
+        <v>1.02630989011348</v>
       </c>
       <c r="J14">
-        <v>0.9773223664166705</v>
+        <v>0.9773223664166711</v>
       </c>
       <c r="K14">
-        <v>0.9913738957968594</v>
+        <v>0.9913738957968599</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9619454246985908</v>
+        <v>0.9619454246985913</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9464483487177563</v>
+        <v>0.9464483487177572</v>
       </c>
       <c r="D15">
-        <v>0.9767111197341627</v>
+        <v>0.9767111197341635</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9469702849046606</v>
+        <v>0.9469702849046613</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0266391835671</v>
+        <v>1.026639183567101</v>
       </c>
       <c r="J15">
-        <v>0.9780662563665998</v>
+        <v>0.9780662563666005</v>
       </c>
       <c r="K15">
-        <v>0.9920115569140558</v>
+        <v>0.9920115569140565</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9628887429218208</v>
+        <v>0.9628887429218214</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9521517934146378</v>
+        <v>0.952151793414638</v>
       </c>
       <c r="D16">
-        <v>0.980971501854047</v>
+        <v>0.9809715018540472</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9530496147450379</v>
+        <v>0.953049614745038</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.028516346624956</v>
       </c>
       <c r="J16">
-        <v>0.9823180671942782</v>
+        <v>0.9823180671942781</v>
       </c>
       <c r="K16">
-        <v>0.9956553197897523</v>
+        <v>0.9956553197897525</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
         <v>0.9682823221062243</v>
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9556432238256846</v>
+        <v>0.9556432238256849</v>
       </c>
       <c r="D17">
-        <v>0.9835817891003067</v>
+        <v>0.9835817891003068</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
         <v>0.9567732564743598</v>
@@ -1009,16 +1009,16 @@
         <v>1.029660479688437</v>
       </c>
       <c r="J17">
-        <v>0.9849195558646294</v>
+        <v>0.9849195558646296</v>
       </c>
       <c r="K17">
-        <v>0.9978839460833838</v>
+        <v>0.9978839460833839</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.971584175101731</v>
+        <v>0.9715841751017311</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,13 +1032,13 @@
         <v>0.9576502378492461</v>
       </c>
       <c r="D18">
-        <v>0.9850830113288689</v>
+        <v>0.9850830113288688</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9589145176179663</v>
+        <v>0.9589145176179662</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1.030316332155333</v>
       </c>
       <c r="J18">
-        <v>0.9864144875786945</v>
+        <v>0.9864144875786947</v>
       </c>
       <c r="K18">
         <v>0.9991642970058268</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9583297191570292</v>
+        <v>0.9583297191570291</v>
       </c>
       <c r="D19">
-        <v>0.985591370591251</v>
+        <v>0.9855913705912506</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9596395785011125</v>
+        <v>0.9596395785011117</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03053805681379</v>
+        <v>1.030538056813789</v>
       </c>
       <c r="J19">
-        <v>0.9869205120670825</v>
+        <v>0.9869205120670823</v>
       </c>
       <c r="K19">
-        <v>0.9995976316135529</v>
+        <v>0.9995976316135525</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9741248412586533</v>
+        <v>0.9741248412586526</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9552717095866187</v>
+        <v>0.9552717095866193</v>
       </c>
       <c r="D20">
-        <v>0.9833039578933185</v>
+        <v>0.9833039578933189</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9563769539732646</v>
+        <v>0.9563769539732647</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029538925903152</v>
+        <v>1.029538925903153</v>
       </c>
       <c r="J20">
-        <v>0.9846427900874494</v>
+        <v>0.9846427900874501</v>
       </c>
       <c r="K20">
-        <v>0.9976468807562431</v>
+        <v>0.9976468807562435</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9712328301041543</v>
+        <v>0.9712328301041544</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9449721643329954</v>
+        <v>0.9449721643329942</v>
       </c>
       <c r="D21">
-        <v>0.975609216364958</v>
+        <v>0.975609216364957</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9453974756663082</v>
+        <v>0.9453974756663074</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026151789729724</v>
       </c>
       <c r="J21">
-        <v>0.9769654088080436</v>
+        <v>0.9769654088080427</v>
       </c>
       <c r="K21">
-        <v>0.9910678973493029</v>
+        <v>0.9910678973493021</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9614928036631126</v>
+        <v>0.9614928036631117</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.938195021607369</v>
+        <v>0.9381950216073696</v>
       </c>
       <c r="D22">
-        <v>0.9705548028330878</v>
+        <v>0.9705548028330885</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9381800112233857</v>
+        <v>0.9381800112233868</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02390674579028</v>
       </c>
       <c r="J22">
-        <v>0.971909765628875</v>
+        <v>0.9719097656288755</v>
       </c>
       <c r="K22">
-        <v>0.986733047023831</v>
+        <v>0.9867330470238317</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9550843548882539</v>
+        <v>0.9550843548882549</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9418181909374571</v>
+        <v>0.9418181909374593</v>
       </c>
       <c r="D23">
-        <v>0.9732560539568313</v>
+        <v>0.9732560539568333</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9420379274322673</v>
+        <v>0.9420379274322696</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025108453357666</v>
+        <v>1.025108453357667</v>
       </c>
       <c r="J23">
-        <v>0.9746129119931346</v>
+        <v>0.9746129119931368</v>
       </c>
       <c r="K23">
-        <v>0.9890510113436942</v>
+        <v>0.9890510113436962</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9585103518258987</v>
+        <v>0.9585103518259007</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9554396716024945</v>
+        <v>0.9554396716024944</v>
       </c>
       <c r="D24">
         <v>0.9834295634691511</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9565561204184146</v>
+        <v>0.9565561204184143</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.029593886244654</v>
       </c>
       <c r="J24">
-        <v>0.9847679178035452</v>
+        <v>0.9847679178035449</v>
       </c>
       <c r="K24">
-        <v>0.9977540606170615</v>
+        <v>0.9977540606170614</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9713916734968548</v>
+        <v>0.9713916734968546</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9701022456928764</v>
+        <v>0.9701022456928774</v>
       </c>
       <c r="D25">
-        <v>0.9944074865311894</v>
+        <v>0.9944074865311905</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9722129470214262</v>
+        <v>0.9722129470214275</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034351804271622</v>
       </c>
       <c r="J25">
-        <v>0.9956794508326081</v>
+        <v>0.9956794508326093</v>
       </c>
       <c r="K25">
-        <v>1.007093243907683</v>
+        <v>1.007093243907684</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9852585019439909</v>
+        <v>0.9852585019439921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9885721623587906</v>
+        <v>0.9885721623587905</v>
       </c>
       <c r="D3">
         <v>1.008263398740404</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.002724888211571</v>
+        <v>1.00272488821157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9932936512129448</v>
+        <v>0.9932936512129464</v>
       </c>
       <c r="D4">
-        <v>1.011808248334988</v>
+        <v>1.011808248334989</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9970550712073694</v>
+        <v>0.997055071207371</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041672510699577</v>
+        <v>1.041672510699578</v>
       </c>
       <c r="J4">
-        <v>1.012870475847978</v>
+        <v>1.012870475847979</v>
       </c>
       <c r="K4">
-        <v>1.02176621697033</v>
+        <v>1.021766216970332</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.007189169355196</v>
+        <v>1.007189169355198</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9952422412128872</v>
+        <v>0.9952422412128882</v>
       </c>
       <c r="D5">
-        <v>1.013271382293381</v>
+        <v>1.013271382293382</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9991476195401143</v>
+        <v>0.9991476195401154</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042273140881442</v>
+        <v>1.042273140881443</v>
       </c>
       <c r="J5">
-        <v>1.014309749511749</v>
+        <v>1.01430974951175</v>
       </c>
       <c r="K5">
-        <v>1.022991577926423</v>
+        <v>1.022991577926424</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.009031484170001</v>
+        <v>1.009031484170002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955673506081074</v>
+        <v>0.9955673506081076</v>
       </c>
       <c r="D6">
         <v>1.013515501858325</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.999496837284228</v>
+        <v>0.9994968372842282</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.042373098206006</v>
       </c>
       <c r="J6">
-        <v>1.014549789083462</v>
+        <v>1.014549789083463</v>
       </c>
       <c r="K6">
-        <v>1.023195885223882</v>
+        <v>1.023195885223883</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
         <v>1.009338854425008</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9933198282277861</v>
+        <v>0.9933198282277875</v>
       </c>
       <c r="D7">
-        <v>1.011827903384414</v>
+        <v>1.011827903384415</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9970831760867231</v>
+        <v>0.9970831760867245</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041680596502379</v>
+        <v>1.04168059650238</v>
       </c>
       <c r="J7">
-        <v>1.012889817071726</v>
+        <v>1.012889817071727</v>
       </c>
       <c r="K7">
-        <v>1.02178268736414</v>
+        <v>1.021782687364141</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.007213919203174</v>
+        <v>1.007213919203176</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.983611203006135</v>
+        <v>0.9836112030061357</v>
       </c>
       <c r="D8">
         <v>1.004539650436709</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9866701923901477</v>
+        <v>0.9866701923901482</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038652043963897</v>
+        <v>1.038652043963898</v>
       </c>
       <c r="J8">
-        <v>1.005705731358618</v>
+        <v>1.005705731358619</v>
       </c>
       <c r="K8">
-        <v>1.015658478412467</v>
+        <v>1.015658478412468</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9980338039814716</v>
+        <v>0.9980338039814718</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9651525487067636</v>
+        <v>0.9651525487067635</v>
       </c>
       <c r="D9">
-        <v>0.9906989656794194</v>
+        <v>0.9906989656794195</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.966923884310843</v>
+        <v>0.9669238843108433</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032755035487517</v>
       </c>
       <c r="J9">
-        <v>0.9919988555287779</v>
+        <v>0.9919988555287778</v>
       </c>
       <c r="K9">
         <v>1.003944769977228</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9805774064748553</v>
+        <v>0.9805774064748554</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9517531280922362</v>
+        <v>0.9517531280922352</v>
       </c>
       <c r="D10">
-        <v>0.9806735542821141</v>
+        <v>0.9806735542821134</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9526245389596664</v>
+        <v>0.9526245389596651</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028385455638149</v>
       </c>
       <c r="J10">
-        <v>0.9820209519535905</v>
+        <v>0.9820209519535895</v>
       </c>
       <c r="K10">
-        <v>0.9954007469646651</v>
+        <v>0.9954007469646643</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9679053081986131</v>
+        <v>0.9679053081986121</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9456416300528171</v>
+        <v>0.9456416300528194</v>
       </c>
       <c r="D11">
-        <v>0.9761089003989694</v>
+        <v>0.9761089003989711</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9461107290277658</v>
+        <v>0.9461107290277675</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026372903388673</v>
+        <v>1.026372903388674</v>
       </c>
       <c r="J11">
-        <v>0.977464672983009</v>
+        <v>0.977464672983011</v>
       </c>
       <c r="K11">
-        <v>0.9914958840279752</v>
+        <v>0.9914958840279769</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9621258748165602</v>
+        <v>0.962125874816562</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.943319991422663</v>
+        <v>0.9433199914226615</v>
       </c>
       <c r="D12">
-        <v>0.9743763439103302</v>
+        <v>0.9743763439103291</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9436374688510064</v>
+        <v>0.9436374688510045</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025605580234821</v>
       </c>
       <c r="J12">
-        <v>0.9757331546474018</v>
+        <v>0.9757331546474003</v>
       </c>
       <c r="K12">
-        <v>0.9900114872009119</v>
+        <v>0.9900114872009106</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9599304675837756</v>
+        <v>0.9599304675837739</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9438204137923552</v>
+        <v>0.9438204137923544</v>
       </c>
       <c r="D13">
-        <v>0.9747497205091349</v>
+        <v>0.9747497205091343</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9441705185539219</v>
+        <v>0.9441705185539211</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025771097957593</v>
       </c>
       <c r="J13">
-        <v>0.9761064066863765</v>
+        <v>0.9761064066863756</v>
       </c>
       <c r="K13">
-        <v>0.9903314873638496</v>
+        <v>0.9903314873638488</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.960403676617932</v>
+        <v>0.9604036766179315</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9454508065139238</v>
+        <v>0.9454508065139232</v>
       </c>
       <c r="D14">
-        <v>0.9759664641918453</v>
+        <v>0.975966464191845</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9459074188040315</v>
+        <v>0.9459074188040311</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02630989011348</v>
+        <v>1.026309890113479</v>
       </c>
       <c r="J14">
-        <v>0.9773223664166711</v>
+        <v>0.9773223664166705</v>
       </c>
       <c r="K14">
-        <v>0.9913738957968599</v>
+        <v>0.9913738957968594</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9619454246985913</v>
+        <v>0.9619454246985908</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9464483487177572</v>
+        <v>0.9464483487177563</v>
       </c>
       <c r="D15">
-        <v>0.9767111197341635</v>
+        <v>0.9767111197341627</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9469702849046613</v>
+        <v>0.9469702849046606</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026639183567101</v>
+        <v>1.0266391835671</v>
       </c>
       <c r="J15">
-        <v>0.9780662563666005</v>
+        <v>0.9780662563665998</v>
       </c>
       <c r="K15">
-        <v>0.9920115569140565</v>
+        <v>0.9920115569140558</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9628887429218214</v>
+        <v>0.9628887429218208</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.952151793414638</v>
+        <v>0.9521517934146378</v>
       </c>
       <c r="D16">
-        <v>0.9809715018540472</v>
+        <v>0.980971501854047</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.953049614745038</v>
+        <v>0.9530496147450379</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.028516346624956</v>
       </c>
       <c r="J16">
-        <v>0.9823180671942781</v>
+        <v>0.9823180671942782</v>
       </c>
       <c r="K16">
-        <v>0.9956553197897525</v>
+        <v>0.9956553197897523</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
         <v>0.9682823221062243</v>
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9556432238256849</v>
+        <v>0.9556432238256846</v>
       </c>
       <c r="D17">
-        <v>0.9835817891003068</v>
+        <v>0.9835817891003067</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
         <v>0.9567732564743598</v>
@@ -1009,16 +1009,16 @@
         <v>1.029660479688437</v>
       </c>
       <c r="J17">
-        <v>0.9849195558646296</v>
+        <v>0.9849195558646294</v>
       </c>
       <c r="K17">
-        <v>0.9978839460833839</v>
+        <v>0.9978839460833838</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9715841751017311</v>
+        <v>0.971584175101731</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,13 +1032,13 @@
         <v>0.9576502378492461</v>
       </c>
       <c r="D18">
-        <v>0.9850830113288688</v>
+        <v>0.9850830113288689</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9589145176179662</v>
+        <v>0.9589145176179663</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1.030316332155333</v>
       </c>
       <c r="J18">
-        <v>0.9864144875786947</v>
+        <v>0.9864144875786945</v>
       </c>
       <c r="K18">
         <v>0.9991642970058268</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9583297191570291</v>
+        <v>0.9583297191570292</v>
       </c>
       <c r="D19">
-        <v>0.9855913705912506</v>
+        <v>0.985591370591251</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9596395785011117</v>
+        <v>0.9596395785011125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030538056813789</v>
+        <v>1.03053805681379</v>
       </c>
       <c r="J19">
-        <v>0.9869205120670823</v>
+        <v>0.9869205120670825</v>
       </c>
       <c r="K19">
-        <v>0.9995976316135525</v>
+        <v>0.9995976316135529</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9741248412586526</v>
+        <v>0.9741248412586533</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9552717095866193</v>
+        <v>0.9552717095866187</v>
       </c>
       <c r="D20">
-        <v>0.9833039578933189</v>
+        <v>0.9833039578933185</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9563769539732647</v>
+        <v>0.9563769539732646</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029538925903153</v>
+        <v>1.029538925903152</v>
       </c>
       <c r="J20">
-        <v>0.9846427900874501</v>
+        <v>0.9846427900874494</v>
       </c>
       <c r="K20">
-        <v>0.9976468807562435</v>
+        <v>0.9976468807562431</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9712328301041544</v>
+        <v>0.9712328301041543</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9449721643329942</v>
+        <v>0.9449721643329954</v>
       </c>
       <c r="D21">
-        <v>0.975609216364957</v>
+        <v>0.975609216364958</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9453974756663074</v>
+        <v>0.9453974756663082</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026151789729724</v>
       </c>
       <c r="J21">
-        <v>0.9769654088080427</v>
+        <v>0.9769654088080436</v>
       </c>
       <c r="K21">
-        <v>0.9910678973493021</v>
+        <v>0.9910678973493029</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9614928036631117</v>
+        <v>0.9614928036631126</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9381950216073696</v>
+        <v>0.938195021607369</v>
       </c>
       <c r="D22">
-        <v>0.9705548028330885</v>
+        <v>0.9705548028330878</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9381800112233868</v>
+        <v>0.9381800112233857</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02390674579028</v>
       </c>
       <c r="J22">
-        <v>0.9719097656288755</v>
+        <v>0.971909765628875</v>
       </c>
       <c r="K22">
-        <v>0.9867330470238317</v>
+        <v>0.986733047023831</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9550843548882549</v>
+        <v>0.9550843548882539</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9418181909374593</v>
+        <v>0.9418181909374571</v>
       </c>
       <c r="D23">
-        <v>0.9732560539568333</v>
+        <v>0.9732560539568313</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9420379274322696</v>
+        <v>0.9420379274322673</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025108453357667</v>
+        <v>1.025108453357666</v>
       </c>
       <c r="J23">
-        <v>0.9746129119931368</v>
+        <v>0.9746129119931346</v>
       </c>
       <c r="K23">
-        <v>0.9890510113436962</v>
+        <v>0.9890510113436942</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9585103518259007</v>
+        <v>0.9585103518258987</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9554396716024944</v>
+        <v>0.9554396716024945</v>
       </c>
       <c r="D24">
         <v>0.9834295634691511</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9565561204184143</v>
+        <v>0.9565561204184146</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.029593886244654</v>
       </c>
       <c r="J24">
-        <v>0.9847679178035449</v>
+        <v>0.9847679178035452</v>
       </c>
       <c r="K24">
-        <v>0.9977540606170614</v>
+        <v>0.9977540606170615</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9713916734968546</v>
+        <v>0.9713916734968548</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9701022456928774</v>
+        <v>0.9701022456928764</v>
       </c>
       <c r="D25">
-        <v>0.9944074865311905</v>
+        <v>0.9944074865311894</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9722129470214275</v>
+        <v>0.9722129470214262</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034351804271622</v>
       </c>
       <c r="J25">
-        <v>0.9956794508326093</v>
+        <v>0.9956794508326081</v>
       </c>
       <c r="K25">
-        <v>1.007093243907684</v>
+        <v>1.007093243907683</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9852585019439921</v>
+        <v>0.9852585019439909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9810261506884272</v>
+        <v>0.9810413926570332</v>
       </c>
       <c r="D2">
-        <v>1.002599781759692</v>
+        <v>1.002611862021098</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9839009849126434</v>
+        <v>0.9839152758245461</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03783634427467</v>
+        <v>1.037842472900325</v>
       </c>
       <c r="J2">
-        <v>1.003789565054906</v>
+        <v>1.003804326410503</v>
       </c>
       <c r="K2">
-        <v>1.014023015929418</v>
+        <v>1.014034928994984</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9955892563342266</v>
+        <v>0.9956033398100188</v>
+      </c>
+      <c r="N2">
+        <v>1.00459638392003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9885721623587905</v>
+        <v>0.988582327665645</v>
       </c>
       <c r="D3">
-        <v>1.008263398740404</v>
+        <v>1.008271564296465</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9919884614105133</v>
+        <v>0.9919980307738691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040206806261726</v>
+        <v>1.040210953871659</v>
       </c>
       <c r="J3">
-        <v>1.009379285107068</v>
+        <v>1.009389164474516</v>
       </c>
       <c r="K3">
-        <v>1.018791628488201</v>
+        <v>1.018799691690176</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.00272488821157</v>
+        <v>1.002734332645095</v>
+      </c>
+      <c r="N3">
+        <v>1.008424271699399</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9932936512129464</v>
+        <v>0.9933007064697283</v>
       </c>
       <c r="D4">
-        <v>1.011808248334989</v>
+        <v>1.011814010747681</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.997055071207371</v>
+        <v>0.9970617556453509</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041672510699578</v>
+        <v>1.041675439940627</v>
       </c>
       <c r="J4">
-        <v>1.012870475847979</v>
+        <v>1.012877347314556</v>
       </c>
       <c r="K4">
-        <v>1.021766216970332</v>
+        <v>1.021771911830937</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.007189169355198</v>
+        <v>1.007195772525374</v>
+      </c>
+      <c r="N4">
+        <v>1.010813824453436</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9952422412128882</v>
+        <v>0.995248026977622</v>
       </c>
       <c r="D5">
-        <v>1.013271382293382</v>
+        <v>1.013276162734172</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9991476195401154</v>
+        <v>0.999153128041948</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042273140881443</v>
+        <v>1.042275571746741</v>
       </c>
       <c r="J5">
-        <v>1.01430974951175</v>
+        <v>1.014315389454834</v>
       </c>
       <c r="K5">
-        <v>1.022991577926424</v>
+        <v>1.022996303923411</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.009031484170002</v>
+        <v>1.009036927721559</v>
+      </c>
+      <c r="N5">
+        <v>1.011798629650693</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955673506081076</v>
+        <v>0.995572925342147</v>
       </c>
       <c r="D6">
-        <v>1.013515501858325</v>
+        <v>1.013520119006856</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9994968372842282</v>
+        <v>0.9995021504009937</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042373098206006</v>
+        <v>1.042375446165861</v>
       </c>
       <c r="J6">
-        <v>1.014549789083463</v>
+        <v>1.014555224098376</v>
       </c>
       <c r="K6">
-        <v>1.023195885223883</v>
+        <v>1.023200450045344</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.009338854425008</v>
+        <v>1.009344105219409</v>
+      </c>
+      <c r="N6">
+        <v>1.011962855316501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9933198282277875</v>
+        <v>0.9933268663771277</v>
       </c>
       <c r="D7">
-        <v>1.011827903384415</v>
+        <v>1.011833652568152</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9970831760867245</v>
+        <v>0.99708984467159</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04168059650238</v>
+        <v>1.041683519031467</v>
       </c>
       <c r="J7">
-        <v>1.012889817071727</v>
+        <v>1.012896671956866</v>
       </c>
       <c r="K7">
-        <v>1.021782687364141</v>
+        <v>1.021788369176696</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.007213919203176</v>
+        <v>1.00722050674593</v>
+      </c>
+      <c r="N7">
+        <v>1.010827059682498</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836112030061357</v>
+        <v>0.9836246905710839</v>
       </c>
       <c r="D8">
-        <v>1.004539650436709</v>
+        <v>1.004550379003329</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9866701923901482</v>
+        <v>0.9866828498906822</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038652043963898</v>
+        <v>1.038657489070691</v>
       </c>
       <c r="J8">
-        <v>1.005705731358619</v>
+        <v>1.005718809506349</v>
       </c>
       <c r="K8">
-        <v>1.015658478412468</v>
+        <v>1.015669063301286</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9980338039814718</v>
+        <v>0.9980462841322</v>
+      </c>
+      <c r="N8">
+        <v>1.005908848013352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9651525487067635</v>
+        <v>0.9651789470398809</v>
       </c>
       <c r="D9">
-        <v>0.9906989656794195</v>
+        <v>0.9907196112720942</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9669238843108433</v>
+        <v>0.9669486044917316</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032755035487517</v>
+        <v>1.032765484160915</v>
       </c>
       <c r="J9">
-        <v>0.9919988555287778</v>
+        <v>0.9920242238984712</v>
       </c>
       <c r="K9">
-        <v>1.003944769977228</v>
+        <v>1.00396507247086</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9805774064748554</v>
+        <v>0.9806016892249092</v>
+      </c>
+      <c r="N9">
+        <v>0.9965154524167968</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9517531280922352</v>
+        <v>0.951789525360988</v>
       </c>
       <c r="D10">
-        <v>0.9806735542821134</v>
+        <v>0.980701829636373</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9526245389596651</v>
+        <v>0.9526586675569174</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028385455638149</v>
+        <v>1.028399737845608</v>
       </c>
       <c r="J10">
-        <v>0.9820209519535895</v>
+        <v>0.9820556865983024</v>
       </c>
       <c r="K10">
-        <v>0.9954007469646643</v>
+        <v>0.9954284851652001</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9679053081986121</v>
+        <v>0.9679387371005842</v>
+      </c>
+      <c r="N10">
+        <v>0.9896717279480027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9456416300528194</v>
+        <v>0.9456827901579461</v>
       </c>
       <c r="D11">
-        <v>0.9761089003989711</v>
+        <v>0.97614079370645</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9461107290277675</v>
+        <v>0.9461493590842492</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026372903388674</v>
+        <v>1.026388999113176</v>
       </c>
       <c r="J11">
-        <v>0.977464672983011</v>
+        <v>0.9775038234018381</v>
       </c>
       <c r="K11">
-        <v>0.9914958840279769</v>
+        <v>0.9915271365229741</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.962125874816562</v>
+        <v>0.9621636619235479</v>
+      </c>
+      <c r="N11">
+        <v>0.9865454622411576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9433199914226615</v>
+        <v>0.9433629969360681</v>
       </c>
       <c r="D12">
-        <v>0.9743763439103291</v>
+        <v>0.9744096361299324</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9436374688510045</v>
+        <v>0.9436778464447586</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025605580234821</v>
+        <v>1.025622376476221</v>
       </c>
       <c r="J12">
-        <v>0.9757331546474003</v>
+        <v>0.9757740082082159</v>
       </c>
       <c r="K12">
-        <v>0.9900114872009106</v>
+        <v>0.9900440965948132</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9599304675837739</v>
+        <v>0.9599699435877005</v>
+      </c>
+      <c r="N12">
+        <v>0.9853572359553189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9438204137923544</v>
+        <v>0.9438630198009912</v>
       </c>
       <c r="D13">
-        <v>0.9747497205091343</v>
+        <v>0.9747827100222962</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9441705185539211</v>
+        <v>0.944210517670383</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025771097957593</v>
+        <v>1.025787742648308</v>
       </c>
       <c r="J13">
-        <v>0.9761064066863756</v>
+        <v>0.9761468919075957</v>
       </c>
       <c r="K13">
-        <v>0.9903314873638488</v>
+        <v>0.9903638032324792</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9604036766179315</v>
+        <v>0.96044278698702</v>
+      </c>
+      <c r="N13">
+        <v>0.9856133806959089</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9454508065139232</v>
+        <v>0.9454921175314985</v>
       </c>
       <c r="D14">
-        <v>0.975966464191845</v>
+        <v>0.9759984719596553</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9459074188040311</v>
+        <v>0.9459461916983254</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026309890113479</v>
+        <v>1.02632604316923</v>
       </c>
       <c r="J14">
-        <v>0.9773223664166705</v>
+        <v>0.97736165627631</v>
       </c>
       <c r="K14">
-        <v>0.9913738957968594</v>
+        <v>0.9914052593546475</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9619454246985908</v>
+        <v>0.9619833499133882</v>
+      </c>
+      <c r="N14">
+        <v>0.9864478096736753</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9464483487177563</v>
+        <v>0.9464888723326739</v>
       </c>
       <c r="D15">
-        <v>0.9767111197341627</v>
+        <v>0.9767425301728394</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9469702849046606</v>
+        <v>0.9470083126661214</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0266391835671</v>
+        <v>1.026655037402483</v>
       </c>
       <c r="J15">
-        <v>0.9780662563665998</v>
+        <v>0.9781048183587074</v>
       </c>
       <c r="K15">
-        <v>0.9920115569140558</v>
+        <v>0.9920423407943291</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9628887429218208</v>
+        <v>0.9629259475545361</v>
+      </c>
+      <c r="N15">
+        <v>0.9869582702378901</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9521517934146378</v>
+        <v>0.9521878846187448</v>
       </c>
       <c r="D16">
-        <v>0.980971501854047</v>
+        <v>0.9809995443489546</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9530496147450379</v>
+        <v>0.9530834545095885</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028516346624956</v>
+        <v>1.028530512019357</v>
       </c>
       <c r="J16">
-        <v>0.9823180671942782</v>
+        <v>0.982352517077857</v>
       </c>
       <c r="K16">
-        <v>0.9956553197897523</v>
+        <v>0.9956828315517187</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9682823221062243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9683154709798575</v>
+      </c>
+      <c r="N16">
+        <v>0.9898755695374866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9556432238256846</v>
+        <v>0.9556766578628141</v>
       </c>
       <c r="D17">
-        <v>0.9835817891003067</v>
+        <v>0.9836078081365568</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9567732564743598</v>
+        <v>0.9568045909007855</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029660479688437</v>
+        <v>1.029673629543628</v>
       </c>
       <c r="J17">
-        <v>0.9849195558646294</v>
+        <v>0.9849515284214909</v>
       </c>
       <c r="K17">
-        <v>0.9978839460833838</v>
+        <v>0.9979094888806436</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.971584175101731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.971614893024303</v>
+      </c>
+      <c r="N17">
+        <v>0.9916602415636474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9576502378492461</v>
+        <v>0.957682162936504</v>
       </c>
       <c r="D18">
-        <v>0.9850830113288689</v>
+        <v>0.9851078798259225</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9589145176179663</v>
+        <v>0.958944431099054</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030316332155333</v>
+        <v>1.030328904184921</v>
       </c>
       <c r="J18">
-        <v>0.9864144875786945</v>
+        <v>0.9864450492153096</v>
       </c>
       <c r="K18">
-        <v>0.9991642970058268</v>
+        <v>0.9991887191987534</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9734822409194048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9735115784970204</v>
+      </c>
+      <c r="N18">
+        <v>0.9926856832301688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9583297191570292</v>
+        <v>0.9583611363718244</v>
       </c>
       <c r="D19">
-        <v>0.985591370591251</v>
+        <v>0.9856158516113299</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9596395785011125</v>
+        <v>0.9596690140215649</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03053805681379</v>
+        <v>1.030550434179251</v>
       </c>
       <c r="J19">
-        <v>0.9869205120670825</v>
+        <v>0.9869505981548657</v>
       </c>
       <c r="K19">
-        <v>0.9995976316135529</v>
+        <v>0.9996216762377311</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9741248412586533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9741537142720682</v>
+      </c>
+      <c r="N19">
+        <v>0.9930327690964562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9552717095866187</v>
+        <v>0.9553054244056719</v>
       </c>
       <c r="D20">
-        <v>0.9833039578933185</v>
+        <v>0.9833301909030364</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9563769539732646</v>
+        <v>0.9564085529488373</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029538925903152</v>
+        <v>1.029552183188973</v>
       </c>
       <c r="J20">
-        <v>0.9846427900874494</v>
+        <v>0.9846750248568064</v>
       </c>
       <c r="K20">
-        <v>0.9976468807562431</v>
+        <v>0.9976726318753585</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9712328301041543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9712638048895087</v>
+      </c>
+      <c r="N20">
+        <v>0.9914703862109445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9449721643329954</v>
+        <v>0.9450138544852802</v>
       </c>
       <c r="D21">
-        <v>0.975609216364958</v>
+        <v>0.9756415116414903</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9453974756663082</v>
+        <v>0.9454366074654206</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026151789729724</v>
+        <v>1.02616808678246</v>
       </c>
       <c r="J21">
-        <v>0.9769654088080436</v>
+        <v>0.9770050488544919</v>
       </c>
       <c r="K21">
-        <v>0.9910678973493029</v>
+        <v>0.991099539850097</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9614928036631126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9615310758481346</v>
+      </c>
+      <c r="N21">
+        <v>0.9862028584378565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.938195021607369</v>
+        <v>0.9382421749809107</v>
       </c>
       <c r="D22">
-        <v>0.9705548028330878</v>
+        <v>0.9705912333667936</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9381800112233857</v>
+        <v>0.9382243235602264</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02390674579028</v>
+        <v>1.023925112214312</v>
       </c>
       <c r="J22">
-        <v>0.971909765628875</v>
+        <v>0.9719544315962945</v>
       </c>
       <c r="K22">
-        <v>0.986733047023831</v>
+        <v>0.9867686966568345</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9550843548882539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9551276275051778</v>
+      </c>
+      <c r="N22">
+        <v>0.982733237827741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9418181909374571</v>
+        <v>0.9418624011922975</v>
       </c>
       <c r="D23">
-        <v>0.9732560539568313</v>
+        <v>0.9732902585503135</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9420379274322673</v>
+        <v>0.9420794468917224</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025108453357666</v>
+        <v>1.025125706275178</v>
       </c>
       <c r="J23">
-        <v>0.9746129119931346</v>
+        <v>0.9746548750922264</v>
       </c>
       <c r="K23">
-        <v>0.9890510113436942</v>
+        <v>0.989084505140241</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9585103518258987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9585509304754128</v>
+      </c>
+      <c r="N23">
+        <v>0.984588446976744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9554396716024945</v>
+        <v>0.9554732594226164</v>
       </c>
       <c r="D24">
-        <v>0.9834295634691511</v>
+        <v>0.9834556997022338</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9565561204184146</v>
+        <v>0.9565875997316674</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029593886244654</v>
+        <v>1.029607094942604</v>
       </c>
       <c r="J24">
-        <v>0.9847679178035452</v>
+        <v>0.9848000339857484</v>
       </c>
       <c r="K24">
-        <v>0.9977540606170615</v>
+        <v>0.9977797175189391</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9713916734968548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.971422532101573</v>
+      </c>
+      <c r="N24">
+        <v>0.9915562214706125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9701022456928764</v>
+        <v>0.9701250907033205</v>
       </c>
       <c r="D25">
-        <v>0.9944074865311894</v>
+        <v>0.9944254098645865</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9722129470214262</v>
+        <v>0.9722343375744747</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034351804271622</v>
+        <v>1.034360881939307</v>
       </c>
       <c r="J25">
-        <v>0.9956794508326081</v>
+        <v>0.995701458912811</v>
       </c>
       <c r="K25">
-        <v>1.007093243907683</v>
+        <v>1.007110884991383</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9852585019439909</v>
+        <v>0.9852795355447698</v>
+      </c>
+      <c r="N25">
+        <v>0.9990388280564425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9810413926570332</v>
+        <v>0.9960750642002213</v>
       </c>
       <c r="D2">
-        <v>1.002611862021098</v>
+        <v>1.013631280808189</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.001992857681929</v>
       </c>
       <c r="F2">
-        <v>0.9839152758245461</v>
+        <v>1.005799036873156</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037842472900325</v>
+        <v>1.039297397385883</v>
       </c>
       <c r="J2">
-        <v>1.003804326410503</v>
+        <v>1.018373806542598</v>
       </c>
       <c r="K2">
-        <v>1.014034928994984</v>
+        <v>1.024903921347633</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.013424498478038</v>
       </c>
       <c r="M2">
-        <v>0.9956033398100188</v>
+        <v>1.017178168802988</v>
       </c>
       <c r="N2">
-        <v>1.00459638392003</v>
+        <v>1.019820014156997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.988582327665645</v>
+        <v>1.004115642199698</v>
       </c>
       <c r="D3">
-        <v>1.008271564296465</v>
+        <v>1.019712156323649</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.009562245461368</v>
       </c>
       <c r="F3">
-        <v>0.9919980307738691</v>
+        <v>1.014080320882638</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040210953871659</v>
+        <v>1.041678522644591</v>
       </c>
       <c r="J3">
-        <v>1.009389164474516</v>
+        <v>1.024494736003051</v>
       </c>
       <c r="K3">
-        <v>1.018799691690176</v>
+        <v>1.030098879216852</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.020074220293463</v>
       </c>
       <c r="M3">
-        <v>1.002734332645095</v>
+        <v>1.024536156320667</v>
       </c>
       <c r="N3">
-        <v>1.008424271699399</v>
+        <v>1.025949636039365</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9933007064697283</v>
+        <v>1.009145347310716</v>
       </c>
       <c r="D4">
-        <v>1.011814010747681</v>
+        <v>1.023518111816532</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.01431181002349</v>
       </c>
       <c r="F4">
-        <v>0.9970617556453509</v>
+        <v>1.019275693457422</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041675439940627</v>
+        <v>1.043154659763925</v>
       </c>
       <c r="J4">
-        <v>1.012877347314556</v>
+        <v>1.028317972369801</v>
       </c>
       <c r="K4">
-        <v>1.021771911830937</v>
+        <v>1.033340743981984</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.024240519078027</v>
       </c>
       <c r="M4">
-        <v>1.007195772525374</v>
+        <v>1.029146913654743</v>
       </c>
       <c r="N4">
-        <v>1.010813824453436</v>
+        <v>1.029778301840286</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.995248026977622</v>
+        <v>1.011220919954518</v>
       </c>
       <c r="D5">
-        <v>1.013276162734172</v>
+        <v>1.025089064891934</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.01627520756436</v>
       </c>
       <c r="F5">
-        <v>0.999153128041948</v>
+        <v>1.021423202546756</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042275571746741</v>
+        <v>1.043760530984714</v>
       </c>
       <c r="J5">
-        <v>1.014315389454834</v>
+        <v>1.029894252126851</v>
       </c>
       <c r="K5">
-        <v>1.022996303923411</v>
+        <v>1.034676578068522</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.025961317459752</v>
       </c>
       <c r="M5">
-        <v>1.009036927721559</v>
+        <v>1.031051469734073</v>
       </c>
       <c r="N5">
-        <v>1.011798629650693</v>
+        <v>1.031356820095394</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.995572925342147</v>
+        <v>1.011567204650706</v>
       </c>
       <c r="D6">
-        <v>1.013520119006856</v>
+        <v>1.025351178257185</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.01660297679254</v>
       </c>
       <c r="F6">
-        <v>0.9995021504009937</v>
+        <v>1.021781697738905</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042375446165861</v>
+        <v>1.043861418692047</v>
       </c>
       <c r="J6">
-        <v>1.014555224098376</v>
+        <v>1.030157149715031</v>
       </c>
       <c r="K6">
-        <v>1.023200450045344</v>
+        <v>1.034899328048198</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.026248499894406</v>
       </c>
       <c r="M6">
-        <v>1.009344105219409</v>
+        <v>1.031369330542205</v>
       </c>
       <c r="N6">
-        <v>1.011962855316501</v>
+        <v>1.031620091028303</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9933268663771277</v>
+        <v>1.009173230966804</v>
       </c>
       <c r="D7">
-        <v>1.011833652568152</v>
+        <v>1.023539214990226</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.014338173211325</v>
       </c>
       <c r="F7">
-        <v>0.99708984467159</v>
+        <v>1.019304529436769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041683519031467</v>
+        <v>1.043162812226605</v>
       </c>
       <c r="J7">
-        <v>1.012896671956866</v>
+        <v>1.028339154173964</v>
       </c>
       <c r="K7">
-        <v>1.021788369176696</v>
+        <v>1.033358697739166</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.024263630685821</v>
       </c>
       <c r="M7">
-        <v>1.00722050674593</v>
+        <v>1.029172492518967</v>
       </c>
       <c r="N7">
-        <v>1.010827059682498</v>
+        <v>1.02979951372504</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836246905710839</v>
+        <v>0.9988298503288195</v>
       </c>
       <c r="D8">
-        <v>1.004550379003329</v>
+        <v>1.015714117714297</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.004583067999157</v>
       </c>
       <c r="F8">
-        <v>0.9866828498906822</v>
+        <v>1.008633063742308</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038657489070691</v>
+        <v>1.040115975474391</v>
       </c>
       <c r="J8">
-        <v>1.005718809506349</v>
+        <v>1.020472050676372</v>
       </c>
       <c r="K8">
-        <v>1.015669063301286</v>
+        <v>1.0266853566131</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.015701314547292</v>
       </c>
       <c r="M8">
-        <v>0.9980462841322</v>
+        <v>1.019697350864243</v>
       </c>
       <c r="N8">
-        <v>1.005908848013352</v>
+        <v>1.021921238038112</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9651789470398809</v>
+        <v>0.9791501726637701</v>
       </c>
       <c r="D9">
-        <v>0.9907196112720942</v>
+        <v>1.000850208994813</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9861465462369644</v>
       </c>
       <c r="F9">
-        <v>0.9669486044917316</v>
+        <v>0.98845565417068</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032765484160915</v>
+        <v>1.034213268423459</v>
       </c>
       <c r="J9">
-        <v>0.9920242238984712</v>
+        <v>1.005461302392976</v>
       </c>
       <c r="K9">
-        <v>1.00396507247086</v>
+        <v>1.013929507195636</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9994684573695624</v>
       </c>
       <c r="M9">
-        <v>0.9806016892249092</v>
+        <v>1.001738848999794</v>
       </c>
       <c r="N9">
-        <v>0.9965154524167968</v>
+        <v>1.006889172770397</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.951789525360988</v>
+        <v>0.9648476903867155</v>
       </c>
       <c r="D10">
-        <v>0.980701829636373</v>
+        <v>0.9900756386194784</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9728395891087859</v>
       </c>
       <c r="F10">
-        <v>0.9526586675569174</v>
+        <v>0.9738830006972037</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028399737845608</v>
+        <v>1.029856701678789</v>
       </c>
       <c r="J10">
-        <v>0.9820556865983024</v>
+        <v>0.9945289131389191</v>
       </c>
       <c r="K10">
-        <v>0.9954284851652001</v>
+        <v>1.004626422624585</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9877171821977551</v>
       </c>
       <c r="M10">
-        <v>0.9679387371005842</v>
+        <v>0.9887403788106346</v>
       </c>
       <c r="N10">
-        <v>0.9896717279480027</v>
+        <v>0.995941258269637</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9456827901579461</v>
+        <v>0.9583183365776884</v>
       </c>
       <c r="D11">
-        <v>0.97614079370645</v>
+        <v>0.9851664757473467</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9667886166617178</v>
       </c>
       <c r="F11">
-        <v>0.9461493590842492</v>
+        <v>0.9672534857073358</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026388999113176</v>
+        <v>1.027853429201797</v>
       </c>
       <c r="J11">
-        <v>0.9775038234018381</v>
+        <v>0.9895341483572218</v>
       </c>
       <c r="K11">
-        <v>0.9915271365229741</v>
+        <v>1.000373659150352</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.982365258214856</v>
       </c>
       <c r="M11">
-        <v>0.9621636619235479</v>
+        <v>0.9828205533708011</v>
       </c>
       <c r="N11">
-        <v>0.9865454622411576</v>
+        <v>0.9909394003490422</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9433629969360681</v>
+        <v>0.9558368548548798</v>
       </c>
       <c r="D12">
-        <v>0.9744096361299324</v>
+        <v>0.9833024884771158</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9644927409970911</v>
       </c>
       <c r="F12">
-        <v>0.9436778464447586</v>
+        <v>0.9647375636395363</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025622376476221</v>
+        <v>1.02709005916187</v>
       </c>
       <c r="J12">
-        <v>0.9757740082082159</v>
+        <v>0.9876354538607683</v>
       </c>
       <c r="K12">
-        <v>0.9900440965948132</v>
+        <v>0.9987567338850997</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9803333559995971</v>
       </c>
       <c r="M12">
-        <v>0.9599699435877005</v>
+        <v>0.9805730217013628</v>
       </c>
       <c r="N12">
-        <v>0.9853572359553189</v>
+        <v>0.9890380094886208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9438630198009912</v>
+        <v>0.9563717847382763</v>
       </c>
       <c r="D13">
-        <v>0.9747827100222962</v>
+        <v>0.983704222230556</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9649874851108051</v>
       </c>
       <c r="F13">
-        <v>0.944210517670383</v>
+        <v>0.9652797516934836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025787742648308</v>
+        <v>1.027254706830998</v>
       </c>
       <c r="J13">
-        <v>0.9761468919075957</v>
+        <v>0.9880447698650507</v>
       </c>
       <c r="K13">
-        <v>0.9903638032324792</v>
+        <v>0.9991053188122384</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9807712728026154</v>
       </c>
       <c r="M13">
-        <v>0.96044278698702</v>
+        <v>0.9810574127169782</v>
       </c>
       <c r="N13">
-        <v>0.9856133806959089</v>
+        <v>0.9894479067685784</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9454921175314985</v>
+        <v>0.9581143987781344</v>
       </c>
       <c r="D14">
-        <v>0.9759984719596553</v>
+        <v>0.9850132489674281</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9665998545005754</v>
       </c>
       <c r="F14">
-        <v>0.9459461916983254</v>
+        <v>0.967046643134354</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02632604316923</v>
+        <v>1.027790732652599</v>
       </c>
       <c r="J14">
-        <v>0.97736165627631</v>
+        <v>0.9893781140832053</v>
       </c>
       <c r="K14">
-        <v>0.9914052593546475</v>
+        <v>1.000240786126855</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9821982249972612</v>
       </c>
       <c r="M14">
-        <v>0.9619833499133882</v>
+        <v>0.9826357949248418</v>
       </c>
       <c r="N14">
-        <v>0.9864478096736753</v>
+        <v>0.9907831444884594</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9464888723326739</v>
+        <v>0.9591804502986691</v>
       </c>
       <c r="D15">
-        <v>0.9767425301728394</v>
+        <v>0.9858142893825181</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9675867332111083</v>
       </c>
       <c r="F15">
-        <v>0.9470083126661214</v>
+        <v>0.9681280269049474</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026655037402483</v>
+        <v>1.028118387290869</v>
       </c>
       <c r="J15">
-        <v>0.9781048183587074</v>
+        <v>0.9901937411419781</v>
       </c>
       <c r="K15">
-        <v>0.9920423407943291</v>
+        <v>1.000935332532671</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9830714500774691</v>
       </c>
       <c r="M15">
-        <v>0.9629259475545361</v>
+        <v>0.9836016837981274</v>
       </c>
       <c r="N15">
-        <v>0.9869582702378901</v>
+        <v>0.9915999298312091</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9521878846187448</v>
+        <v>0.9652734734129402</v>
       </c>
       <c r="D16">
-        <v>0.9809995443489546</v>
+        <v>0.9903959903303987</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.973234685961831</v>
       </c>
       <c r="F16">
-        <v>0.9530834545095885</v>
+        <v>0.9743158046706734</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028530512019357</v>
+        <v>1.029987050341493</v>
       </c>
       <c r="J16">
-        <v>0.982352517077857</v>
+        <v>0.9948545564003165</v>
       </c>
       <c r="K16">
-        <v>0.9956828315517187</v>
+        <v>1.004903645773288</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9880664618072784</v>
       </c>
       <c r="M16">
-        <v>0.9683154709798575</v>
+        <v>0.9891267203452926</v>
       </c>
       <c r="N16">
-        <v>0.9898755695374866</v>
+        <v>0.9962673639818175</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9556766578628141</v>
+        <v>0.9690017038838349</v>
       </c>
       <c r="D17">
-        <v>0.9836078081365568</v>
+        <v>0.9932021585606139</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9766969285102223</v>
       </c>
       <c r="F17">
-        <v>0.9568045909007855</v>
+        <v>0.978108129162484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029673629543628</v>
+        <v>1.03112680198557</v>
       </c>
       <c r="J17">
-        <v>0.9849515284214909</v>
+        <v>0.9977055215943715</v>
       </c>
       <c r="K17">
-        <v>0.9979094888806436</v>
+        <v>1.007330437727291</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9911262659428612</v>
       </c>
       <c r="M17">
-        <v>0.971614893024303</v>
+        <v>0.9925112079443726</v>
       </c>
       <c r="N17">
-        <v>0.9916602415636474</v>
+        <v>0.9991223778734584</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.957682162936504</v>
+        <v>0.9711442975167309</v>
       </c>
       <c r="D18">
-        <v>0.9851078798259225</v>
+        <v>0.9948157275337601</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9786888795505189</v>
       </c>
       <c r="F18">
-        <v>0.958944431099054</v>
+        <v>0.9802897128478517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030328904184921</v>
+        <v>1.031780453916008</v>
       </c>
       <c r="J18">
-        <v>0.9864450492153096</v>
+        <v>0.9993435781414917</v>
       </c>
       <c r="K18">
-        <v>0.9991887191987534</v>
+        <v>1.00872455236072</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.992885897658871</v>
       </c>
       <c r="M18">
-        <v>0.9735115784970204</v>
+        <v>0.9944575718800803</v>
       </c>
       <c r="N18">
-        <v>0.9926856832301688</v>
+        <v>1.000762760648763</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9583611363718244</v>
+        <v>0.9718695933021292</v>
       </c>
       <c r="D19">
-        <v>0.9856158516113299</v>
+        <v>0.9953620827617401</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9793635517703697</v>
       </c>
       <c r="F19">
-        <v>0.9596690140215649</v>
+        <v>0.9810285690592787</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030550434179251</v>
+        <v>1.03200148953478</v>
       </c>
       <c r="J19">
-        <v>0.9869505981548657</v>
+        <v>0.9998980132784748</v>
       </c>
       <c r="K19">
-        <v>0.9996216762377311</v>
+        <v>1.009196379647842</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9934817509940352</v>
       </c>
       <c r="M19">
-        <v>0.9741537142720682</v>
+        <v>0.9951166604818086</v>
       </c>
       <c r="N19">
-        <v>0.9930327690964562</v>
+        <v>1.001317983147236</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9553054244056719</v>
+        <v>0.9686050501456223</v>
       </c>
       <c r="D20">
-        <v>0.9833301909030364</v>
+        <v>0.9929035113989887</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9763283415481052</v>
       </c>
       <c r="F20">
-        <v>0.9564085529488373</v>
+        <v>0.9777044311625301</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029552183188973</v>
+        <v>1.031005681817758</v>
       </c>
       <c r="J20">
-        <v>0.9846750248568064</v>
+        <v>0.9974022400696738</v>
       </c>
       <c r="K20">
-        <v>0.9976726318753585</v>
+        <v>1.007072302416129</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9908006035585689</v>
       </c>
       <c r="M20">
-        <v>0.9712638048895087</v>
+        <v>0.9921509875752421</v>
       </c>
       <c r="N20">
-        <v>0.9914703862109445</v>
+        <v>0.9988186656542084</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9450138544852802</v>
+        <v>0.9576028435425038</v>
       </c>
       <c r="D21">
-        <v>0.9756415116414903</v>
+        <v>0.9846289256972106</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9661264274104159</v>
       </c>
       <c r="F21">
-        <v>0.9454366074654206</v>
+        <v>0.9665278603694222</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02616808678246</v>
+        <v>1.02763343331037</v>
       </c>
       <c r="J21">
-        <v>0.9770050488544919</v>
+        <v>0.9889867131047725</v>
       </c>
       <c r="K21">
-        <v>0.991099539850097</v>
+        <v>0.9999074790488875</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9817792751423573</v>
       </c>
       <c r="M21">
-        <v>0.9615310758481346</v>
+        <v>0.98217238647884</v>
       </c>
       <c r="N21">
-        <v>0.9862028584378565</v>
+        <v>0.990391187675743</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9382421749809107</v>
+        <v>0.9503567135154311</v>
       </c>
       <c r="D22">
-        <v>0.9705912333667936</v>
+        <v>0.979189610297486</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9594297721804399</v>
       </c>
       <c r="F22">
-        <v>0.9382243235602264</v>
+        <v>0.9591882472123598</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023925112214312</v>
+        <v>1.025400647453332</v>
       </c>
       <c r="J22">
-        <v>0.9719544315962945</v>
+        <v>0.9834417397823489</v>
       </c>
       <c r="K22">
-        <v>0.9867686966568345</v>
+        <v>0.995184913260114</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9758501766798258</v>
       </c>
       <c r="M22">
-        <v>0.9551276275051778</v>
+        <v>0.9756139919224287</v>
       </c>
       <c r="N22">
-        <v>0.982733237827741</v>
+        <v>0.9848383398551842</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9418624011922975</v>
+        <v>0.9542313139066714</v>
       </c>
       <c r="D23">
-        <v>0.9732902585503135</v>
+        <v>0.9820970030335566</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.963008388224536</v>
       </c>
       <c r="F23">
-        <v>0.9420794468917224</v>
+        <v>0.9631107820025602</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025125706275178</v>
+        <v>1.026595599634777</v>
       </c>
       <c r="J23">
-        <v>0.9746548750922264</v>
+        <v>0.9864068806383054</v>
       </c>
       <c r="K23">
-        <v>0.989084505140241</v>
+        <v>0.9977104092966352</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9790193136038953</v>
       </c>
       <c r="M23">
-        <v>0.9585509304754128</v>
+        <v>0.9791195193206427</v>
       </c>
       <c r="N23">
-        <v>0.984588446976744</v>
+        <v>0.9878076915512625</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9554732594226164</v>
+        <v>0.9687843794300297</v>
       </c>
       <c r="D24">
-        <v>0.9834556997022338</v>
+        <v>0.9930385286704457</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9764949748062478</v>
       </c>
       <c r="F24">
-        <v>0.9565875997316674</v>
+        <v>0.9778869385028415</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029607094942604</v>
+        <v>1.031060445125978</v>
       </c>
       <c r="J24">
-        <v>0.9848000339857484</v>
+        <v>0.9975393564603221</v>
       </c>
       <c r="K24">
-        <v>0.9977797175189391</v>
+        <v>1.00718900849886</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.990947833617366</v>
       </c>
       <c r="M24">
-        <v>0.971422532101573</v>
+        <v>0.9923138410527733</v>
       </c>
       <c r="N24">
-        <v>0.9915562214706125</v>
+        <v>0.9989559767658591</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9701250907033205</v>
+        <v>0.9844295560284945</v>
       </c>
       <c r="D25">
-        <v>0.9944254098645865</v>
+        <v>1.004833822478737</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9910774523300994</v>
       </c>
       <c r="F25">
-        <v>0.9722343375744747</v>
+        <v>0.993853486439423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034360881939307</v>
+        <v>1.035808455542537</v>
       </c>
       <c r="J25">
-        <v>0.995701458912811</v>
+        <v>1.009492535118016</v>
       </c>
       <c r="K25">
-        <v>1.007110884991383</v>
+        <v>1.017357560178926</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.003815876726184</v>
       </c>
       <c r="M25">
-        <v>0.9852795355447698</v>
+        <v>1.006547974420364</v>
       </c>
       <c r="N25">
-        <v>0.9990388280564425</v>
+        <v>1.010926130308296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9960750642002213</v>
+        <v>1.018742711971412</v>
       </c>
       <c r="D2">
-        <v>1.013631280808189</v>
+        <v>1.03739574764616</v>
       </c>
       <c r="E2">
-        <v>1.001992857681929</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.005799036873156</v>
+        <v>1.041664386535558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039297397385883</v>
+        <v>1.052094173158846</v>
       </c>
       <c r="J2">
-        <v>1.018373806542598</v>
+        <v>1.04037692692757</v>
       </c>
       <c r="K2">
-        <v>1.024903921347633</v>
+        <v>1.048357570324722</v>
       </c>
       <c r="L2">
-        <v>1.013424498478038</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.017178168802988</v>
+        <v>1.052572253974575</v>
       </c>
       <c r="N2">
-        <v>1.019820014156997</v>
+        <v>1.041854381496708</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004115642199698</v>
+        <v>1.022598154253088</v>
       </c>
       <c r="D3">
-        <v>1.019712156323649</v>
+        <v>1.040339743761252</v>
       </c>
       <c r="E3">
-        <v>1.009562245461368</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.014080320882638</v>
+        <v>1.04510398286313</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041678522644591</v>
+        <v>1.053211061050255</v>
       </c>
       <c r="J3">
-        <v>1.024494736003051</v>
+        <v>1.042491170510236</v>
       </c>
       <c r="K3">
-        <v>1.030098879216852</v>
+        <v>1.050481231601215</v>
       </c>
       <c r="L3">
-        <v>1.020074220293463</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.024536156320667</v>
+        <v>1.055190529471582</v>
       </c>
       <c r="N3">
-        <v>1.025949636039365</v>
+        <v>1.043971627547769</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009145347310716</v>
+        <v>1.025047162751438</v>
       </c>
       <c r="D4">
-        <v>1.023518111816532</v>
+        <v>1.042212645550765</v>
       </c>
       <c r="E4">
-        <v>1.01431181002349</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.019275693457422</v>
+        <v>1.047293723670408</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043154659763925</v>
+        <v>1.053912580635477</v>
       </c>
       <c r="J4">
-        <v>1.028317972369801</v>
+        <v>1.043831158062369</v>
       </c>
       <c r="K4">
-        <v>1.033340743981984</v>
+        <v>1.051826957742083</v>
       </c>
       <c r="L4">
-        <v>1.024240519078027</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.029146913654743</v>
+        <v>1.056852991765237</v>
       </c>
       <c r="N4">
-        <v>1.029778301840286</v>
+        <v>1.045313518035925</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011220919954518</v>
+        <v>1.026066109064527</v>
       </c>
       <c r="D5">
-        <v>1.025089064891934</v>
+        <v>1.042992540940317</v>
       </c>
       <c r="E5">
-        <v>1.01627520756436</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.021423202546756</v>
+        <v>1.048205936407468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043760530984714</v>
+        <v>1.054202524274163</v>
       </c>
       <c r="J5">
-        <v>1.029894252126851</v>
+        <v>1.044387935178976</v>
       </c>
       <c r="K5">
-        <v>1.034676578068522</v>
+        <v>1.052386057912094</v>
       </c>
       <c r="L5">
-        <v>1.025961317459752</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.031051469734073</v>
+        <v>1.05754448581956</v>
       </c>
       <c r="N5">
-        <v>1.031356820095394</v>
+        <v>1.0458710858399</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011567204650706</v>
+        <v>1.026236581355327</v>
       </c>
       <c r="D6">
-        <v>1.025351178257185</v>
+        <v>1.043123056361121</v>
       </c>
       <c r="E6">
-        <v>1.01660297679254</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.021781697738905</v>
+        <v>1.048358617900641</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043861418692047</v>
+        <v>1.054250918044606</v>
       </c>
       <c r="J6">
-        <v>1.030157149715031</v>
+        <v>1.044481040900229</v>
       </c>
       <c r="K6">
-        <v>1.034899328048198</v>
+        <v>1.0524795483156</v>
       </c>
       <c r="L6">
-        <v>1.026248499894406</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.031369330542205</v>
+        <v>1.057660161934746</v>
       </c>
       <c r="N6">
-        <v>1.031620091028303</v>
+        <v>1.045964323781958</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009173230966804</v>
+        <v>1.025060819252931</v>
       </c>
       <c r="D7">
-        <v>1.023539214990226</v>
+        <v>1.042223095649458</v>
       </c>
       <c r="E7">
-        <v>1.014338173211325</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.019304529436769</v>
+        <v>1.047305945213743</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043162812226605</v>
+        <v>1.053916474301346</v>
       </c>
       <c r="J7">
-        <v>1.028339154173964</v>
+        <v>1.043838623281073</v>
       </c>
       <c r="K7">
-        <v>1.033358697739166</v>
+        <v>1.0518344543586</v>
       </c>
       <c r="L7">
-        <v>1.024263630685821</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.029172492518967</v>
+        <v>1.05686226038915</v>
       </c>
       <c r="N7">
-        <v>1.02979951372504</v>
+        <v>1.045320993856096</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988298503288195</v>
+        <v>1.020055345888837</v>
       </c>
       <c r="D8">
-        <v>1.015714117714297</v>
+        <v>1.038397448052486</v>
       </c>
       <c r="E8">
-        <v>1.004583067999157</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.008633063742308</v>
+        <v>1.042834398153097</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040115975474391</v>
+        <v>1.052476075413195</v>
       </c>
       <c r="J8">
-        <v>1.020472050676372</v>
+        <v>1.041097359763551</v>
       </c>
       <c r="K8">
-        <v>1.0266853566131</v>
+        <v>1.049081256758156</v>
       </c>
       <c r="L8">
-        <v>1.015701314547292</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.019697350864243</v>
+        <v>1.053463802462326</v>
       </c>
       <c r="N8">
-        <v>1.021921238038112</v>
+        <v>1.042575837429952</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9791501726637701</v>
+        <v>1.010869408504703</v>
       </c>
       <c r="D9">
-        <v>1.000850208994813</v>
+        <v>1.031401088227646</v>
       </c>
       <c r="E9">
-        <v>0.9861465462369644</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.98845565417068</v>
+        <v>1.034668571191496</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034213268423459</v>
+        <v>1.049771166467215</v>
       </c>
       <c r="J9">
-        <v>1.005461302392976</v>
+        <v>1.036044093377435</v>
       </c>
       <c r="K9">
-        <v>1.013929507195636</v>
+        <v>1.044004450020258</v>
       </c>
       <c r="L9">
-        <v>0.9994684573695624</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.001738848999794</v>
+        <v>1.047223146353429</v>
       </c>
       <c r="N9">
-        <v>1.006889172770397</v>
+        <v>1.037515394825949</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9648476903867155</v>
+        <v>1.004476802004161</v>
       </c>
       <c r="D10">
-        <v>0.9900756386194784</v>
+        <v>1.02655135155389</v>
       </c>
       <c r="E10">
-        <v>0.9728395891087859</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9738830006972037</v>
+        <v>1.029015441420123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029856701678789</v>
+        <v>1.047849129126162</v>
       </c>
       <c r="J10">
-        <v>0.9945289131389191</v>
+        <v>1.032513919441234</v>
       </c>
       <c r="K10">
-        <v>1.004626422624585</v>
+        <v>1.040457209005215</v>
       </c>
       <c r="L10">
-        <v>0.9877171821977551</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9887403788106346</v>
+        <v>1.042879856708947</v>
       </c>
       <c r="N10">
-        <v>0.995941258269637</v>
+        <v>1.033980207637843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9583183365776884</v>
+        <v>1.001639573780432</v>
       </c>
       <c r="D11">
-        <v>0.9851664757473467</v>
+        <v>1.024404040157789</v>
       </c>
       <c r="E11">
-        <v>0.9667886166617178</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9672534857073358</v>
+        <v>1.026513980384536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027853429201797</v>
+        <v>1.046987107355802</v>
       </c>
       <c r="J11">
-        <v>0.9895341483572218</v>
+        <v>1.030944303278537</v>
       </c>
       <c r="K11">
-        <v>1.000373659150352</v>
+        <v>1.038879953761088</v>
       </c>
       <c r="L11">
-        <v>0.982365258214856</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9828205533708011</v>
+        <v>1.040952624402937</v>
       </c>
       <c r="N11">
-        <v>0.9909394003490422</v>
+        <v>1.032408362440157</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9558368548548798</v>
+        <v>1.000574811895177</v>
       </c>
       <c r="D12">
-        <v>0.9833024884771158</v>
+        <v>1.023599019121561</v>
       </c>
       <c r="E12">
-        <v>0.9644927409970911</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9647375636395363</v>
+        <v>1.025576411924422</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02709005916187</v>
+        <v>1.046662297419655</v>
       </c>
       <c r="J12">
-        <v>0.9876354538607683</v>
+        <v>1.030354864556712</v>
       </c>
       <c r="K12">
-        <v>0.9987567338850997</v>
+        <v>1.038287647268803</v>
       </c>
       <c r="L12">
-        <v>0.9803333559995971</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9805730217013628</v>
+        <v>1.040229482089712</v>
       </c>
       <c r="N12">
-        <v>0.9890380094886208</v>
+        <v>1.031818086647737</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9563717847382763</v>
+        <v>1.000803707945904</v>
       </c>
       <c r="D13">
-        <v>0.983704222230556</v>
+        <v>1.023772039387025</v>
       </c>
       <c r="E13">
-        <v>0.9649874851108051</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9652797516934836</v>
+        <v>1.025777910298026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027254706830998</v>
+        <v>1.046732181581321</v>
       </c>
       <c r="J13">
-        <v>0.9880447698650507</v>
+        <v>1.030481595548729</v>
       </c>
       <c r="K13">
-        <v>0.9991053188122384</v>
+        <v>1.038414994656822</v>
       </c>
       <c r="L13">
-        <v>0.9807712728026154</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9810574127169782</v>
+        <v>1.040384932911373</v>
       </c>
       <c r="N13">
-        <v>0.9894479067685784</v>
+        <v>1.0319449976123</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9581143987781344</v>
+        <v>1.001551785324885</v>
       </c>
       <c r="D14">
-        <v>0.9850132489674281</v>
+        <v>1.024337649911391</v>
       </c>
       <c r="E14">
-        <v>0.9665998545005754</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.967046643134354</v>
+        <v>1.02643665448114</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027790732652599</v>
+        <v>1.046960353509115</v>
       </c>
       <c r="J14">
-        <v>0.9893781140832053</v>
+        <v>1.030895712414616</v>
       </c>
       <c r="K14">
-        <v>1.000240786126855</v>
+        <v>1.038831126420798</v>
       </c>
       <c r="L14">
-        <v>0.9821982249972612</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9826357949248418</v>
+        <v>1.040892999512354</v>
       </c>
       <c r="N14">
-        <v>0.9907831444884594</v>
+        <v>1.032359702571635</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591804502986691</v>
+        <v>1.002011242309597</v>
       </c>
       <c r="D15">
-        <v>0.9858142893825181</v>
+        <v>1.024685149507483</v>
       </c>
       <c r="E15">
-        <v>0.9675867332111083</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.9681280269049474</v>
+        <v>1.026841402445074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028118387290869</v>
+        <v>1.047100321546418</v>
       </c>
       <c r="J15">
-        <v>0.9901937411419781</v>
+        <v>1.031150005941133</v>
       </c>
       <c r="K15">
-        <v>1.000935332532671</v>
+        <v>1.039086657603277</v>
       </c>
       <c r="L15">
-        <v>0.9830714500774691</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>0.9836016837981274</v>
+        <v>1.041205062249991</v>
       </c>
       <c r="N15">
-        <v>0.9915999298312091</v>
+        <v>1.032614357224128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9652734734129402</v>
+        <v>1.004663600260576</v>
       </c>
       <c r="D16">
-        <v>0.9903959903303987</v>
+        <v>1.026692838742165</v>
       </c>
       <c r="E16">
-        <v>0.973234685961831</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>0.9743158046706734</v>
+        <v>1.02918029528963</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029987050341493</v>
+        <v>1.047905699370882</v>
       </c>
       <c r="J16">
-        <v>0.9948545564003165</v>
+        <v>1.032617204326013</v>
       </c>
       <c r="K16">
-        <v>1.004903645773288</v>
+        <v>1.040560996221466</v>
       </c>
       <c r="L16">
-        <v>0.9880664618072784</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>0.9891267203452926</v>
+        <v>1.043006755654318</v>
       </c>
       <c r="N16">
-        <v>0.9962673639818175</v>
+        <v>1.034083639199005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9690017038838349</v>
+        <v>1.006308490932385</v>
       </c>
       <c r="D17">
-        <v>0.9932021585606139</v>
+        <v>1.02793932658422</v>
       </c>
       <c r="E17">
-        <v>0.9766969285102223</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.978108129162484</v>
+        <v>1.030632818618109</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03112680198557</v>
+        <v>1.048402822724872</v>
       </c>
       <c r="J17">
-        <v>0.9977055215943715</v>
+        <v>1.033526383228117</v>
       </c>
       <c r="K17">
-        <v>1.007330437727291</v>
+        <v>1.041474592215019</v>
       </c>
       <c r="L17">
-        <v>0.9911262659428612</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9925112079443726</v>
+        <v>1.044124247224414</v>
       </c>
       <c r="N17">
-        <v>0.9991223778734584</v>
+        <v>1.034994109239434</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9711442975167309</v>
+        <v>1.007261287139047</v>
       </c>
       <c r="D18">
-        <v>0.9948157275337601</v>
+        <v>1.028661835105652</v>
       </c>
       <c r="E18">
-        <v>0.9786888795505189</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.9802897128478517</v>
+        <v>1.031474902754358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031780453916008</v>
+        <v>1.048689924485754</v>
       </c>
       <c r="J18">
-        <v>0.9993435781414917</v>
+        <v>1.034052750927869</v>
       </c>
       <c r="K18">
-        <v>1.00872455236072</v>
+        <v>1.042003511802293</v>
       </c>
       <c r="L18">
-        <v>0.992885897658871</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>0.9944575718800803</v>
+        <v>1.044771589109356</v>
       </c>
       <c r="N18">
-        <v>1.000762760648763</v>
+        <v>1.035521224441695</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9718695933021292</v>
+        <v>1.007585054183656</v>
       </c>
       <c r="D19">
-        <v>0.9953620827617401</v>
+        <v>1.028907429503875</v>
       </c>
       <c r="E19">
-        <v>0.9793635517703697</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>0.9810285690592787</v>
+        <v>1.031761169040341</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03200148953478</v>
+        <v>1.048787337594033</v>
       </c>
       <c r="J19">
-        <v>0.9998980132784748</v>
+        <v>1.034231567594046</v>
       </c>
       <c r="K19">
-        <v>1.009196379647842</v>
+        <v>1.042183194228615</v>
       </c>
       <c r="L19">
-        <v>0.9934817509940352</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>0.9951166604818086</v>
+        <v>1.044991565890713</v>
       </c>
       <c r="N19">
-        <v>1.001317983147236</v>
+        <v>1.035700295048049</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9686050501456223</v>
+        <v>1.006132700088821</v>
       </c>
       <c r="D20">
-        <v>0.9929035113989887</v>
+        <v>1.027806062650428</v>
       </c>
       <c r="E20">
-        <v>0.9763283415481052</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9777044311625301</v>
+        <v>1.03047751163901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031005681817758</v>
+        <v>1.048349783129604</v>
       </c>
       <c r="J20">
-        <v>0.9974022400696738</v>
+        <v>1.033429246326901</v>
       </c>
       <c r="K20">
-        <v>1.007072302416129</v>
+        <v>1.041376983888988</v>
       </c>
       <c r="L20">
-        <v>0.9908006035585689</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9921509875752421</v>
+        <v>1.044004815545038</v>
       </c>
       <c r="N20">
-        <v>0.9988186656542084</v>
+        <v>1.034896834392676</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9576028435425038</v>
+        <v>1.001331799889646</v>
       </c>
       <c r="D21">
-        <v>0.9846289256972106</v>
+        <v>1.024171298875135</v>
       </c>
       <c r="E21">
-        <v>0.9661264274104159</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9665278603694222</v>
+        <v>1.026242906001372</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02763343331037</v>
+        <v>1.046893291209204</v>
       </c>
       <c r="J21">
-        <v>0.9889867131047725</v>
+        <v>1.030773944436657</v>
       </c>
       <c r="K21">
-        <v>0.9999074790488875</v>
+        <v>1.038708765881301</v>
       </c>
       <c r="L21">
-        <v>0.9817792751423573</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.98217238647884</v>
+        <v>1.040743589982701</v>
       </c>
       <c r="N21">
-        <v>0.990391187675743</v>
+        <v>1.032237761669181</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9503567135154311</v>
+        <v>0.9982500164840248</v>
       </c>
       <c r="D22">
-        <v>0.979189610297486</v>
+        <v>1.021842922039417</v>
       </c>
       <c r="E22">
-        <v>0.9594297721804399</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9591882472123598</v>
+        <v>1.023531565373549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025400647453332</v>
+        <v>1.045950748512761</v>
       </c>
       <c r="J22">
-        <v>0.9834417397823489</v>
+        <v>1.029067210589284</v>
       </c>
       <c r="K22">
-        <v>0.995184913260114</v>
+        <v>1.036993739940655</v>
       </c>
       <c r="L22">
-        <v>0.9758501766798258</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9756139919224287</v>
+        <v>1.03865083977226</v>
       </c>
       <c r="N22">
-        <v>0.9848383398551842</v>
+        <v>1.030528604063979</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9542313139066714</v>
+        <v>0.9998898979921123</v>
       </c>
       <c r="D23">
-        <v>0.9820970030335566</v>
+        <v>1.023081424947926</v>
       </c>
       <c r="E23">
-        <v>0.963008388224536</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9631107820025602</v>
+        <v>1.024973656362286</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026595599634777</v>
+        <v>1.046452997948482</v>
       </c>
       <c r="J23">
-        <v>0.9864068806383054</v>
+        <v>1.029975599564774</v>
       </c>
       <c r="K23">
-        <v>0.9977104092966352</v>
+        <v>1.037906538412892</v>
       </c>
       <c r="L23">
-        <v>0.9790193136038953</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9791195193206427</v>
+        <v>1.039764354984912</v>
       </c>
       <c r="N23">
-        <v>0.9878076915512625</v>
+        <v>1.031438283056008</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9687843794300297</v>
+        <v>1.006212152890352</v>
       </c>
       <c r="D24">
-        <v>0.9930385286704457</v>
+        <v>1.027866292915301</v>
       </c>
       <c r="E24">
-        <v>0.9764949748062478</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9778869385028415</v>
+        <v>1.030547704061595</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031060445125978</v>
+        <v>1.048373758273312</v>
       </c>
       <c r="J24">
-        <v>0.9975393564603221</v>
+        <v>1.033473150472279</v>
       </c>
       <c r="K24">
-        <v>1.00718900849886</v>
+        <v>1.041421101127293</v>
       </c>
       <c r="L24">
-        <v>0.990947833617366</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9923138410527733</v>
+        <v>1.044058795379545</v>
       </c>
       <c r="N24">
-        <v>0.9989559767658591</v>
+        <v>1.034940800886977</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9844295560284945</v>
+        <v>1.013289795694969</v>
       </c>
       <c r="D25">
-        <v>1.004833822478737</v>
+        <v>1.033241438982433</v>
       </c>
       <c r="E25">
-        <v>0.9910774523300994</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.993853486439423</v>
+        <v>1.036815236905446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035808455542537</v>
+        <v>1.050490872699154</v>
       </c>
       <c r="J25">
-        <v>1.009492535118016</v>
+        <v>1.037378035859845</v>
       </c>
       <c r="K25">
-        <v>1.017357560178926</v>
+        <v>1.045344744796787</v>
       </c>
       <c r="L25">
-        <v>1.003815876726184</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.006547974420364</v>
+        <v>1.048867713889032</v>
       </c>
       <c r="N25">
-        <v>1.010926130308296</v>
+        <v>1.03885123165969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018742711971412</v>
+        <v>1.040790813259761</v>
       </c>
       <c r="D2">
-        <v>1.03739574764616</v>
+        <v>1.04916559464119</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.041664386535558</v>
+        <v>1.05775577049272</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052094173158846</v>
+        <v>1.042924056688473</v>
       </c>
       <c r="J2">
-        <v>1.04037692692757</v>
+        <v>1.045875514491193</v>
       </c>
       <c r="K2">
-        <v>1.048357570324722</v>
+        <v>1.051923411866803</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.052572253974575</v>
+        <v>1.060489870676634</v>
       </c>
       <c r="N2">
-        <v>1.041854381496708</v>
+        <v>1.047360777685368</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022598154253088</v>
+        <v>1.041608523233425</v>
       </c>
       <c r="D3">
-        <v>1.040339743761252</v>
+        <v>1.0498152761327</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.04510398286313</v>
+        <v>1.058535772695139</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053211061050255</v>
+        <v>1.043116535728473</v>
       </c>
       <c r="J3">
-        <v>1.042491170510236</v>
+        <v>1.046339644603778</v>
       </c>
       <c r="K3">
-        <v>1.050481231601215</v>
+        <v>1.052385704830444</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.055190529471582</v>
+        <v>1.061083857760616</v>
       </c>
       <c r="N3">
-        <v>1.043971627547769</v>
+        <v>1.04782556691595</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025047162751438</v>
+        <v>1.042138205475054</v>
       </c>
       <c r="D4">
-        <v>1.042212645550765</v>
+        <v>1.050236177153582</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.047293723670408</v>
+        <v>1.0590413480743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053912580635477</v>
+        <v>1.043240223967725</v>
       </c>
       <c r="J4">
-        <v>1.043831158062369</v>
+        <v>1.046639854253768</v>
       </c>
       <c r="K4">
-        <v>1.051826957742083</v>
+        <v>1.052684665220367</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.056852991765237</v>
+        <v>1.061468406863188</v>
       </c>
       <c r="N4">
-        <v>1.045313518035925</v>
+        <v>1.048126202898078</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026066109064527</v>
+        <v>1.042361018451689</v>
       </c>
       <c r="D5">
-        <v>1.042992540940317</v>
+        <v>1.050413245085541</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.048205936407468</v>
+        <v>1.059254096282758</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054202524274163</v>
+        <v>1.043292016220359</v>
       </c>
       <c r="J5">
-        <v>1.044387935178976</v>
+        <v>1.046766033922337</v>
       </c>
       <c r="K5">
-        <v>1.052386057912094</v>
+        <v>1.052810305140397</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.05754448581956</v>
+        <v>1.061630117493185</v>
       </c>
       <c r="N5">
-        <v>1.0458710858399</v>
+        <v>1.048252561756249</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026236581355327</v>
+        <v>1.042398437572085</v>
       </c>
       <c r="D6">
-        <v>1.043123056361121</v>
+        <v>1.05044298262117</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.048358617900641</v>
+        <v>1.059289829566381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054250918044606</v>
+        <v>1.043300700249456</v>
       </c>
       <c r="J6">
-        <v>1.044481040900229</v>
+        <v>1.046787218337307</v>
       </c>
       <c r="K6">
-        <v>1.0524795483156</v>
+        <v>1.052831398073232</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.057660161934746</v>
+        <v>1.061657272080536</v>
       </c>
       <c r="N6">
-        <v>1.045964323781958</v>
+        <v>1.048273776255518</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025060819252931</v>
+        <v>1.04214118218635</v>
       </c>
       <c r="D7">
-        <v>1.042223095649458</v>
+        <v>1.050238542670244</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.047305945213743</v>
+        <v>1.059044190025948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053916474301346</v>
+        <v>1.043240916829813</v>
       </c>
       <c r="J7">
-        <v>1.043838623281073</v>
+        <v>1.04664154038614</v>
       </c>
       <c r="K7">
-        <v>1.0518344543586</v>
+        <v>1.052686344197898</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.05686226038915</v>
+        <v>1.061470567469104</v>
       </c>
       <c r="N7">
-        <v>1.045320993856096</v>
+        <v>1.048127891424951</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020055345888837</v>
+        <v>1.041067043287728</v>
       </c>
       <c r="D8">
-        <v>1.038397448052486</v>
+        <v>1.049385050090079</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.042834398153097</v>
+        <v>1.058019196247965</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052476075413195</v>
+        <v>1.042989283208738</v>
       </c>
       <c r="J8">
-        <v>1.041097359763551</v>
+        <v>1.046032392181397</v>
       </c>
       <c r="K8">
-        <v>1.049081256758156</v>
+        <v>1.052079681166008</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.053463802462326</v>
+        <v>1.060690569054661</v>
       </c>
       <c r="N8">
-        <v>1.042575837429952</v>
+        <v>1.047517878159886</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010869408504703</v>
+        <v>1.039178708366584</v>
       </c>
       <c r="D9">
-        <v>1.031401088227646</v>
+        <v>1.04788510181819</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.034668571191496</v>
+        <v>1.056219714880493</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049771166467215</v>
+        <v>1.042539329757926</v>
       </c>
       <c r="J9">
-        <v>1.036044093377435</v>
+        <v>1.044958182012588</v>
       </c>
       <c r="K9">
-        <v>1.044004450020258</v>
+        <v>1.051009390146103</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.047223146353429</v>
+        <v>1.059317714084664</v>
       </c>
       <c r="N9">
-        <v>1.037515394825949</v>
+        <v>1.046442142489425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004476802004161</v>
+        <v>1.037922902085167</v>
       </c>
       <c r="D10">
-        <v>1.02655135155389</v>
+        <v>1.046887944581202</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.029015441420123</v>
+        <v>1.055024676907355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047849129126162</v>
+        <v>1.042235005947414</v>
       </c>
       <c r="J10">
-        <v>1.032513919441234</v>
+        <v>1.044241571464587</v>
       </c>
       <c r="K10">
-        <v>1.040457209005215</v>
+        <v>1.050295087592437</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.042879856708947</v>
+        <v>1.05840365180001</v>
       </c>
       <c r="N10">
-        <v>1.033980207637843</v>
+        <v>1.045724514272249</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001639573780432</v>
+        <v>1.037379876929471</v>
       </c>
       <c r="D11">
-        <v>1.024404040157789</v>
+        <v>1.046456853630861</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.026513980384536</v>
+        <v>1.054508332399292</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046987107355802</v>
+        <v>1.042102206786333</v>
       </c>
       <c r="J11">
-        <v>1.030944303278537</v>
+        <v>1.04393117570164</v>
       </c>
       <c r="K11">
-        <v>1.038879953761088</v>
+        <v>1.049985619900519</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.040952624402937</v>
+        <v>1.058008151846565</v>
       </c>
       <c r="N11">
-        <v>1.032408362440157</v>
+        <v>1.045413677711716</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000574811895177</v>
+        <v>1.037178287195223</v>
       </c>
       <c r="D12">
-        <v>1.023599019121561</v>
+        <v>1.046296831997426</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.025576411924422</v>
+        <v>1.054316708593475</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046662297419655</v>
+        <v>1.042052726017027</v>
       </c>
       <c r="J12">
-        <v>1.030354864556712</v>
+        <v>1.043815867364552</v>
       </c>
       <c r="K12">
-        <v>1.038287647268803</v>
+        <v>1.049870645657122</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.040229482089712</v>
+        <v>1.057861291542284</v>
       </c>
       <c r="N12">
-        <v>1.031818086647737</v>
+        <v>1.045298205623563</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000803707945904</v>
+        <v>1.037221523691737</v>
       </c>
       <c r="D13">
-        <v>1.023772039387025</v>
+        <v>1.046331152411317</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.025777910298026</v>
+        <v>1.054357804845675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046732181581321</v>
+        <v>1.042063346732937</v>
       </c>
       <c r="J13">
-        <v>1.030481595548729</v>
+        <v>1.043840601985795</v>
       </c>
       <c r="K13">
-        <v>1.038414994656822</v>
+        <v>1.049895309094034</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.040384932911373</v>
+        <v>1.057892791468372</v>
       </c>
       <c r="N13">
-        <v>1.0319449976123</v>
+        <v>1.045322975370805</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001551785324885</v>
+        <v>1.037363211123895</v>
       </c>
       <c r="D14">
-        <v>1.024337649911391</v>
+        <v>1.046443624045259</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.02643665448114</v>
+        <v>1.054492489245444</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046960353509115</v>
+        <v>1.042098119812444</v>
       </c>
       <c r="J14">
-        <v>1.030895712414616</v>
+        <v>1.043921644547062</v>
       </c>
       <c r="K14">
-        <v>1.038831126420798</v>
+        <v>1.049976116578684</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.040892999512354</v>
+        <v>1.057996011380257</v>
       </c>
       <c r="N14">
-        <v>1.032359702571635</v>
+        <v>1.045404133021805</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002011242309597</v>
+        <v>1.037450524582994</v>
       </c>
       <c r="D15">
-        <v>1.024685149507483</v>
+        <v>1.046512935465882</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.026841402445074</v>
+        <v>1.054575495275442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047100321546418</v>
+        <v>1.042119524369645</v>
       </c>
       <c r="J15">
-        <v>1.031150005941133</v>
+        <v>1.04397157578958</v>
       </c>
       <c r="K15">
-        <v>1.039086657603277</v>
+        <v>1.050025901576114</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.041205062249991</v>
+        <v>1.058059614718176</v>
       </c>
       <c r="N15">
-        <v>1.032614357224128</v>
+        <v>1.045454135172415</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004663600260576</v>
+        <v>1.037958956766886</v>
       </c>
       <c r="D16">
-        <v>1.026692838742165</v>
+        <v>1.046916569253566</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.02918029528963</v>
+        <v>1.055058968654442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047905699370882</v>
+        <v>1.042243797858967</v>
       </c>
       <c r="J16">
-        <v>1.032617204326013</v>
+        <v>1.044262169440701</v>
       </c>
       <c r="K16">
-        <v>1.040560996221466</v>
+        <v>1.050315622480012</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.043006755654318</v>
+        <v>1.058429906187442</v>
       </c>
       <c r="N16">
-        <v>1.034083639199005</v>
+        <v>1.045745141499852</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006308490932385</v>
+        <v>1.038278084117506</v>
       </c>
       <c r="D17">
-        <v>1.02793932658422</v>
+        <v>1.047169942702385</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.030632818618109</v>
+        <v>1.055362538645458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048402822724872</v>
+        <v>1.042321477449748</v>
       </c>
       <c r="J17">
-        <v>1.033526383228117</v>
+        <v>1.044444425657669</v>
       </c>
       <c r="K17">
-        <v>1.041474592215019</v>
+        <v>1.050497312211481</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.044124247224414</v>
+        <v>1.058662260408191</v>
       </c>
       <c r="N17">
-        <v>1.034994109239434</v>
+        <v>1.045927656541552</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007261287139047</v>
+        <v>1.038464297685291</v>
       </c>
       <c r="D18">
-        <v>1.028661835105652</v>
+        <v>1.047317797088036</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.031474902754358</v>
+        <v>1.055539713312124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048689924485754</v>
+        <v>1.042366687699101</v>
       </c>
       <c r="J18">
-        <v>1.034052750927869</v>
+        <v>1.044550723018858</v>
       </c>
       <c r="K18">
-        <v>1.042003511802293</v>
+        <v>1.050603272265966</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.044771589109356</v>
+        <v>1.05879781705054</v>
       </c>
       <c r="N18">
-        <v>1.035521224441695</v>
+        <v>1.046034104857187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007585054183656</v>
+        <v>1.038527803857033</v>
       </c>
       <c r="D19">
-        <v>1.028907429503875</v>
+        <v>1.047368222740252</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.031761169040341</v>
+        <v>1.055600143454065</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048787337594033</v>
+        <v>1.042382086421131</v>
       </c>
       <c r="J19">
-        <v>1.034231567594046</v>
+        <v>1.044586966003258</v>
       </c>
       <c r="K19">
-        <v>1.042183194228615</v>
+        <v>1.050639399067204</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.044991565890713</v>
+        <v>1.058844043121712</v>
       </c>
       <c r="N19">
-        <v>1.035700295048049</v>
+        <v>1.046070399310782</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006132700088821</v>
+        <v>1.038243837314981</v>
       </c>
       <c r="D20">
-        <v>1.027806062650428</v>
+        <v>1.047142751295291</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.03047751163901</v>
+        <v>1.055329957331956</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048349783129604</v>
+        <v>1.042313153393494</v>
       </c>
       <c r="J20">
-        <v>1.033429246326901</v>
+        <v>1.044424872274772</v>
       </c>
       <c r="K20">
-        <v>1.041376983888988</v>
+        <v>1.050477820318723</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.044004815545038</v>
+        <v>1.058637328054259</v>
       </c>
       <c r="N20">
-        <v>1.034896834392676</v>
+        <v>1.04590807539061</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001331799889646</v>
+        <v>1.037321484546166</v>
       </c>
       <c r="D21">
-        <v>1.024171298875135</v>
+        <v>1.046410501046012</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.026242906001372</v>
+        <v>1.054452823350225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046893291209204</v>
+        <v>1.042087884231685</v>
       </c>
       <c r="J21">
-        <v>1.030773944436657</v>
+        <v>1.04389777989582</v>
       </c>
       <c r="K21">
-        <v>1.038708765881301</v>
+        <v>1.049952321444537</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.040743589982701</v>
+        <v>1.057965614406069</v>
       </c>
       <c r="N21">
-        <v>1.032237761669181</v>
+        <v>1.045380234480021</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9982500164840248</v>
+        <v>1.036742225098356</v>
       </c>
       <c r="D22">
-        <v>1.021842922039417</v>
+        <v>1.045950713167374</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.023531565373549</v>
+        <v>1.053902316289596</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045950748512761</v>
+        <v>1.041945362289667</v>
       </c>
       <c r="J22">
-        <v>1.029067210589284</v>
+        <v>1.043566298354654</v>
       </c>
       <c r="K22">
-        <v>1.036993739940655</v>
+        <v>1.049621780321764</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.03865083977226</v>
+        <v>1.057543548269412</v>
       </c>
       <c r="N22">
-        <v>1.030528604063979</v>
+        <v>1.045048282197045</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9998898979921123</v>
+        <v>1.037049238323142</v>
       </c>
       <c r="D23">
-        <v>1.023081424947926</v>
+        <v>1.046194397269119</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.024973656362286</v>
+        <v>1.054194056744186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046452997948482</v>
+        <v>1.042020999629852</v>
       </c>
       <c r="J23">
-        <v>1.029975599564774</v>
+        <v>1.043742029919214</v>
       </c>
       <c r="K23">
-        <v>1.037906538412892</v>
+        <v>1.049797019153948</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.039764354984912</v>
+        <v>1.057767267661444</v>
       </c>
       <c r="N23">
-        <v>1.031438283056008</v>
+        <v>1.045224263320583</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006212152890352</v>
+        <v>1.0382593117487</v>
       </c>
       <c r="D24">
-        <v>1.027866292915301</v>
+        <v>1.047155037718218</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.030547704061595</v>
+        <v>1.055344679093418</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048373758273312</v>
+        <v>1.042316914982016</v>
       </c>
       <c r="J24">
-        <v>1.033473150472279</v>
+        <v>1.044433707636683</v>
       </c>
       <c r="K24">
-        <v>1.041421101127293</v>
+        <v>1.050486627917173</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.044058795379545</v>
+        <v>1.058648593824397</v>
       </c>
       <c r="N24">
-        <v>1.034940800886977</v>
+        <v>1.045916923299748</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013289795694969</v>
+        <v>1.039666352151153</v>
       </c>
       <c r="D25">
-        <v>1.033241438982433</v>
+        <v>1.048272387395707</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.036815236905446</v>
+        <v>1.056684119021552</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050490872699154</v>
+        <v>1.042656424324025</v>
       </c>
       <c r="J25">
-        <v>1.037378035859845</v>
+        <v>1.045235979595359</v>
       </c>
       <c r="K25">
-        <v>1.045344744796787</v>
+        <v>1.051286228583985</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.048867713889032</v>
+        <v>1.059672430136972</v>
       </c>
       <c r="N25">
-        <v>1.03885123165969</v>
+        <v>1.046720334576626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040790813259761</v>
+        <v>1.018742711971412</v>
       </c>
       <c r="D2">
-        <v>1.04916559464119</v>
+        <v>1.037395747646161</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.05775577049272</v>
+        <v>1.041664386535559</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042924056688473</v>
+        <v>1.052094173158846</v>
       </c>
       <c r="J2">
-        <v>1.045875514491193</v>
+        <v>1.04037692692757</v>
       </c>
       <c r="K2">
-        <v>1.051923411866803</v>
+        <v>1.048357570324723</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.060489870676634</v>
+        <v>1.052572253974575</v>
       </c>
       <c r="N2">
-        <v>1.047360777685368</v>
+        <v>1.041854381496708</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041608523233425</v>
+        <v>1.022598154253088</v>
       </c>
       <c r="D3">
-        <v>1.0498152761327</v>
+        <v>1.040339743761252</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.058535772695139</v>
+        <v>1.04510398286313</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043116535728473</v>
+        <v>1.053211061050255</v>
       </c>
       <c r="J3">
-        <v>1.046339644603778</v>
+        <v>1.042491170510236</v>
       </c>
       <c r="K3">
-        <v>1.052385704830444</v>
+        <v>1.050481231601215</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.061083857760616</v>
+        <v>1.055190529471583</v>
       </c>
       <c r="N3">
-        <v>1.04782556691595</v>
+        <v>1.043971627547769</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042138205475054</v>
+        <v>1.025047162751438</v>
       </c>
       <c r="D4">
-        <v>1.050236177153582</v>
+        <v>1.042212645550765</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.0590413480743</v>
+        <v>1.047293723670408</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043240223967725</v>
+        <v>1.053912580635477</v>
       </c>
       <c r="J4">
-        <v>1.046639854253768</v>
+        <v>1.043831158062369</v>
       </c>
       <c r="K4">
-        <v>1.052684665220367</v>
+        <v>1.051826957742083</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.061468406863188</v>
+        <v>1.056852991765237</v>
       </c>
       <c r="N4">
-        <v>1.048126202898078</v>
+        <v>1.045313518035924</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042361018451689</v>
+        <v>1.026066109064527</v>
       </c>
       <c r="D5">
-        <v>1.050413245085541</v>
+        <v>1.042992540940316</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.059254096282758</v>
+        <v>1.048205936407467</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043292016220359</v>
+        <v>1.054202524274163</v>
       </c>
       <c r="J5">
-        <v>1.046766033922337</v>
+        <v>1.044387935178976</v>
       </c>
       <c r="K5">
-        <v>1.052810305140397</v>
+        <v>1.052386057912094</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.061630117493185</v>
+        <v>1.057544485819559</v>
       </c>
       <c r="N5">
-        <v>1.048252561756249</v>
+        <v>1.0458710858399</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042398437572085</v>
+        <v>1.026236581355327</v>
       </c>
       <c r="D6">
-        <v>1.05044298262117</v>
+        <v>1.043123056361121</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.059289829566381</v>
+        <v>1.04835861790064</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043300700249456</v>
+        <v>1.054250918044606</v>
       </c>
       <c r="J6">
-        <v>1.046787218337307</v>
+        <v>1.044481040900229</v>
       </c>
       <c r="K6">
-        <v>1.052831398073232</v>
+        <v>1.052479548315599</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.061657272080536</v>
+        <v>1.057660161934745</v>
       </c>
       <c r="N6">
-        <v>1.048273776255518</v>
+        <v>1.045964323781957</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04214118218635</v>
+        <v>1.025060819252932</v>
       </c>
       <c r="D7">
-        <v>1.050238542670244</v>
+        <v>1.042223095649458</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.059044190025948</v>
+        <v>1.047305945213744</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043240916829813</v>
+        <v>1.053916474301346</v>
       </c>
       <c r="J7">
-        <v>1.04664154038614</v>
+        <v>1.043838623281074</v>
       </c>
       <c r="K7">
-        <v>1.052686344197898</v>
+        <v>1.0518344543586</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.061470567469104</v>
+        <v>1.056862260389151</v>
       </c>
       <c r="N7">
-        <v>1.048127891424951</v>
+        <v>1.045320993856097</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041067043287728</v>
+        <v>1.020055345888836</v>
       </c>
       <c r="D8">
-        <v>1.049385050090079</v>
+        <v>1.038397448052485</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.058019196247965</v>
+        <v>1.042834398153097</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042989283208738</v>
+        <v>1.052476075413194</v>
       </c>
       <c r="J8">
-        <v>1.046032392181397</v>
+        <v>1.041097359763551</v>
       </c>
       <c r="K8">
-        <v>1.052079681166008</v>
+        <v>1.049081256758155</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.060690569054661</v>
+        <v>1.053463802462326</v>
       </c>
       <c r="N8">
-        <v>1.047517878159886</v>
+        <v>1.042575837429951</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039178708366584</v>
+        <v>1.010869408504702</v>
       </c>
       <c r="D9">
-        <v>1.04788510181819</v>
+        <v>1.031401088227644</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.056219714880493</v>
+        <v>1.034668571191494</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042539329757926</v>
+        <v>1.049771166467214</v>
       </c>
       <c r="J9">
-        <v>1.044958182012588</v>
+        <v>1.036044093377433</v>
       </c>
       <c r="K9">
-        <v>1.051009390146103</v>
+        <v>1.044004450020256</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.059317714084664</v>
+        <v>1.047223146353427</v>
       </c>
       <c r="N9">
-        <v>1.046442142489425</v>
+        <v>1.037515394825947</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037922902085167</v>
+        <v>1.004476802004161</v>
       </c>
       <c r="D10">
-        <v>1.046887944581202</v>
+        <v>1.026551351553889</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.055024676907355</v>
+        <v>1.029015441420122</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042235005947414</v>
+        <v>1.047849129126162</v>
       </c>
       <c r="J10">
-        <v>1.044241571464587</v>
+        <v>1.032513919441234</v>
       </c>
       <c r="K10">
-        <v>1.050295087592437</v>
+        <v>1.040457209005214</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.05840365180001</v>
+        <v>1.042879856708946</v>
       </c>
       <c r="N10">
-        <v>1.045724514272249</v>
+        <v>1.033980207637842</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037379876929471</v>
+        <v>1.001639573780432</v>
       </c>
       <c r="D11">
-        <v>1.046456853630861</v>
+        <v>1.024404040157788</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.054508332399292</v>
+        <v>1.026513980384534</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042102206786333</v>
+        <v>1.046987107355801</v>
       </c>
       <c r="J11">
-        <v>1.04393117570164</v>
+        <v>1.030944303278536</v>
       </c>
       <c r="K11">
-        <v>1.049985619900519</v>
+        <v>1.038879953761087</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.058008151846565</v>
+        <v>1.040952624402937</v>
       </c>
       <c r="N11">
-        <v>1.045413677711716</v>
+        <v>1.032408362440156</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037178287195223</v>
+        <v>1.000574811895176</v>
       </c>
       <c r="D12">
-        <v>1.046296831997426</v>
+        <v>1.02359901912156</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.054316708593475</v>
+        <v>1.025576411924422</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042052726017027</v>
+        <v>1.046662297419655</v>
       </c>
       <c r="J12">
-        <v>1.043815867364552</v>
+        <v>1.030354864556711</v>
       </c>
       <c r="K12">
-        <v>1.049870645657122</v>
+        <v>1.038287647268802</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.057861291542284</v>
+        <v>1.040229482089712</v>
       </c>
       <c r="N12">
-        <v>1.045298205623563</v>
+        <v>1.031818086647736</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037221523691737</v>
+        <v>1.000803707945904</v>
       </c>
       <c r="D13">
-        <v>1.046331152411317</v>
+        <v>1.023772039387025</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.054357804845675</v>
+        <v>1.025777910298026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042063346732937</v>
+        <v>1.046732181581321</v>
       </c>
       <c r="J13">
-        <v>1.043840601985795</v>
+        <v>1.030481595548729</v>
       </c>
       <c r="K13">
-        <v>1.049895309094034</v>
+        <v>1.038414994656822</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.057892791468372</v>
+        <v>1.040384932911373</v>
       </c>
       <c r="N13">
-        <v>1.045322975370805</v>
+        <v>1.031944997612299</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037363211123895</v>
+        <v>1.001551785324885</v>
       </c>
       <c r="D14">
-        <v>1.046443624045259</v>
+        <v>1.024337649911392</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.054492489245444</v>
+        <v>1.026436654481141</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042098119812444</v>
+        <v>1.046960353509115</v>
       </c>
       <c r="J14">
-        <v>1.043921644547062</v>
+        <v>1.030895712414616</v>
       </c>
       <c r="K14">
-        <v>1.049976116578684</v>
+        <v>1.038831126420798</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.057996011380257</v>
+        <v>1.040892999512355</v>
       </c>
       <c r="N14">
-        <v>1.045404133021805</v>
+        <v>1.032359702571636</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037450524582994</v>
+        <v>1.002011242309596</v>
       </c>
       <c r="D15">
-        <v>1.046512935465882</v>
+        <v>1.024685149507483</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.054575495275442</v>
+        <v>1.026841402445074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042119524369645</v>
+        <v>1.047100321546417</v>
       </c>
       <c r="J15">
-        <v>1.04397157578958</v>
+        <v>1.031150005941133</v>
       </c>
       <c r="K15">
-        <v>1.050025901576114</v>
+        <v>1.039086657603276</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.058059614718176</v>
+        <v>1.04120506224999</v>
       </c>
       <c r="N15">
-        <v>1.045454135172415</v>
+        <v>1.032614357224128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037958956766886</v>
+        <v>1.004663600260576</v>
       </c>
       <c r="D16">
-        <v>1.046916569253566</v>
+        <v>1.026692838742165</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.055058968654442</v>
+        <v>1.02918029528963</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042243797858967</v>
+        <v>1.047905699370882</v>
       </c>
       <c r="J16">
-        <v>1.044262169440701</v>
+        <v>1.032617204326013</v>
       </c>
       <c r="K16">
-        <v>1.050315622480012</v>
+        <v>1.040560996221466</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.058429906187442</v>
+        <v>1.043006755654318</v>
       </c>
       <c r="N16">
-        <v>1.045745141499852</v>
+        <v>1.034083639199005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038278084117506</v>
+        <v>1.006308490932385</v>
       </c>
       <c r="D17">
-        <v>1.047169942702385</v>
+        <v>1.027939326584221</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.055362538645458</v>
+        <v>1.030632818618109</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042321477449748</v>
+        <v>1.048402822724872</v>
       </c>
       <c r="J17">
-        <v>1.044444425657669</v>
+        <v>1.033526383228117</v>
       </c>
       <c r="K17">
-        <v>1.050497312211481</v>
+        <v>1.041474592215019</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.058662260408191</v>
+        <v>1.044124247224414</v>
       </c>
       <c r="N17">
-        <v>1.045927656541552</v>
+        <v>1.034994109239434</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038464297685291</v>
+        <v>1.007261287139047</v>
       </c>
       <c r="D18">
-        <v>1.047317797088036</v>
+        <v>1.028661835105652</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.055539713312124</v>
+        <v>1.031474902754358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042366687699101</v>
+        <v>1.048689924485754</v>
       </c>
       <c r="J18">
-        <v>1.044550723018858</v>
+        <v>1.034052750927869</v>
       </c>
       <c r="K18">
-        <v>1.050603272265966</v>
+        <v>1.042003511802293</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.05879781705054</v>
+        <v>1.044771589109356</v>
       </c>
       <c r="N18">
-        <v>1.046034104857187</v>
+        <v>1.035521224441695</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038527803857033</v>
+        <v>1.007585054183655</v>
       </c>
       <c r="D19">
-        <v>1.047368222740252</v>
+        <v>1.028907429503874</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.055600143454065</v>
+        <v>1.03176116904034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042382086421131</v>
+        <v>1.048787337594033</v>
       </c>
       <c r="J19">
-        <v>1.044586966003258</v>
+        <v>1.034231567594045</v>
       </c>
       <c r="K19">
-        <v>1.050639399067204</v>
+        <v>1.042183194228614</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.058844043121712</v>
+        <v>1.044991565890712</v>
       </c>
       <c r="N19">
-        <v>1.046070399310782</v>
+        <v>1.035700295048048</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038243837314981</v>
+        <v>1.00613270008882</v>
       </c>
       <c r="D20">
-        <v>1.047142751295291</v>
+        <v>1.027806062650427</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.055329957331956</v>
+        <v>1.030477511639009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042313153393494</v>
+        <v>1.048349783129604</v>
       </c>
       <c r="J20">
-        <v>1.044424872274772</v>
+        <v>1.0334292463269</v>
       </c>
       <c r="K20">
-        <v>1.050477820318723</v>
+        <v>1.041376983888987</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.058637328054259</v>
+        <v>1.044004815545038</v>
       </c>
       <c r="N20">
-        <v>1.04590807539061</v>
+        <v>1.034896834392676</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037321484546166</v>
+        <v>1.001331799889646</v>
       </c>
       <c r="D21">
-        <v>1.046410501046012</v>
+        <v>1.024171298875135</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.054452823350225</v>
+        <v>1.026242906001371</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042087884231685</v>
+        <v>1.046893291209204</v>
       </c>
       <c r="J21">
-        <v>1.04389777989582</v>
+        <v>1.030773944436657</v>
       </c>
       <c r="K21">
-        <v>1.049952321444537</v>
+        <v>1.038708765881301</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.057965614406069</v>
+        <v>1.040743589982701</v>
       </c>
       <c r="N21">
-        <v>1.045380234480021</v>
+        <v>1.032237761669181</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036742225098356</v>
+        <v>0.9982500164840243</v>
       </c>
       <c r="D22">
-        <v>1.045950713167374</v>
+        <v>1.021842922039417</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.053902316289596</v>
+        <v>1.023531565373549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041945362289667</v>
+        <v>1.045950748512761</v>
       </c>
       <c r="J22">
-        <v>1.043566298354654</v>
+        <v>1.029067210589283</v>
       </c>
       <c r="K22">
-        <v>1.049621780321764</v>
+        <v>1.036993739940655</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.057543548269412</v>
+        <v>1.03865083977226</v>
       </c>
       <c r="N22">
-        <v>1.045048282197045</v>
+        <v>1.030528604063979</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037049238323142</v>
+        <v>0.9998898979921113</v>
       </c>
       <c r="D23">
-        <v>1.046194397269119</v>
+        <v>1.023081424947925</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.054194056744186</v>
+        <v>1.024973656362285</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042020999629852</v>
+        <v>1.046452997948481</v>
       </c>
       <c r="J23">
-        <v>1.043742029919214</v>
+        <v>1.029975599564773</v>
       </c>
       <c r="K23">
-        <v>1.049797019153948</v>
+        <v>1.037906538412891</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.057767267661444</v>
+        <v>1.03976435498491</v>
       </c>
       <c r="N23">
-        <v>1.045224263320583</v>
+        <v>1.031438283056007</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0382593117487</v>
+        <v>1.006212152890352</v>
       </c>
       <c r="D24">
-        <v>1.047155037718218</v>
+        <v>1.0278662929153</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.055344679093418</v>
+        <v>1.030547704061594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042316914982016</v>
+        <v>1.048373758273311</v>
       </c>
       <c r="J24">
-        <v>1.044433707636683</v>
+        <v>1.033473150472278</v>
       </c>
       <c r="K24">
-        <v>1.050486627917173</v>
+        <v>1.041421101127293</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.058648593824397</v>
+        <v>1.044058795379544</v>
       </c>
       <c r="N24">
-        <v>1.045916923299748</v>
+        <v>1.034940800886976</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039666352151153</v>
+        <v>1.013289795694968</v>
       </c>
       <c r="D25">
-        <v>1.048272387395707</v>
+        <v>1.033241438982433</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.056684119021552</v>
+        <v>1.036815236905446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042656424324025</v>
+        <v>1.050490872699154</v>
       </c>
       <c r="J25">
-        <v>1.045235979595359</v>
+        <v>1.037378035859844</v>
       </c>
       <c r="K25">
-        <v>1.051286228583985</v>
+        <v>1.045344744796787</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.059672430136972</v>
+        <v>1.048867713889032</v>
       </c>
       <c r="N25">
-        <v>1.046720334576626</v>
+        <v>1.038851231659689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018742711971412</v>
+        <v>1.013252135332431</v>
       </c>
       <c r="D2">
-        <v>1.037395747646161</v>
+        <v>1.028927723420231</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.021546533605827</v>
       </c>
       <c r="F2">
-        <v>1.041664386535559</v>
+        <v>1.029828709046073</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052094173158846</v>
+        <v>1.047122670283384</v>
       </c>
       <c r="J2">
-        <v>1.04037692692757</v>
+        <v>1.035043575192102</v>
       </c>
       <c r="K2">
-        <v>1.048357570324723</v>
+        <v>1.039998239211052</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.032713635399074</v>
       </c>
       <c r="M2">
-        <v>1.052572253974575</v>
+        <v>1.040887553718148</v>
       </c>
       <c r="N2">
-        <v>1.041854381496708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015419798350092</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04093214652964</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039352498146206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022598154253088</v>
+        <v>1.017006947204762</v>
       </c>
       <c r="D3">
-        <v>1.040339743761252</v>
+        <v>1.031381077580564</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.025129077279767</v>
       </c>
       <c r="F3">
-        <v>1.04510398286313</v>
+        <v>1.033147356757551</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053211061050255</v>
+        <v>1.048002638325503</v>
       </c>
       <c r="J3">
-        <v>1.042491170510236</v>
+        <v>1.037044483352417</v>
       </c>
       <c r="K3">
-        <v>1.050481231601215</v>
+        <v>1.041627579299477</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.03545021434274</v>
       </c>
       <c r="M3">
-        <v>1.055190529471583</v>
+        <v>1.043372975599907</v>
       </c>
       <c r="N3">
-        <v>1.043971627547769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016101702318027</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042899187454558</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040501918872094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025047162751438</v>
+        <v>1.019391142343555</v>
       </c>
       <c r="D4">
-        <v>1.042212645550765</v>
+        <v>1.03294274360716</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.02741211007619</v>
       </c>
       <c r="F4">
-        <v>1.047293723670408</v>
+        <v>1.03526316679809</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053912580635477</v>
+        <v>1.048553101457</v>
       </c>
       <c r="J4">
-        <v>1.043831158062369</v>
+        <v>1.038311499178294</v>
       </c>
       <c r="K4">
-        <v>1.051826957742083</v>
+        <v>1.042659194064703</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.037190579895159</v>
       </c>
       <c r="M4">
-        <v>1.056852991765237</v>
+        <v>1.044953839193447</v>
       </c>
       <c r="N4">
-        <v>1.045313518035924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016533522655809</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04415032977393</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041232251369976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026066109064527</v>
+        <v>1.020386640329583</v>
       </c>
       <c r="D5">
-        <v>1.042992540940316</v>
+        <v>1.03359796297248</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.028365375086232</v>
       </c>
       <c r="F5">
-        <v>1.048205936407467</v>
+        <v>1.036146759999258</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054202524274163</v>
+        <v>1.048782612923963</v>
       </c>
       <c r="J5">
-        <v>1.044387935178976</v>
+        <v>1.038841326944698</v>
       </c>
       <c r="K5">
-        <v>1.052386057912094</v>
+        <v>1.043092248535057</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.037916767056092</v>
       </c>
       <c r="M5">
-        <v>1.057544485819559</v>
+        <v>1.045613485116806</v>
       </c>
       <c r="N5">
-        <v>1.0458710858399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016714570923716</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044672392481451</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041545611928367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026236581355327</v>
+        <v>1.020557727904607</v>
       </c>
       <c r="D6">
-        <v>1.043123056361121</v>
+        <v>1.033713374008406</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.028526950340516</v>
       </c>
       <c r="F6">
-        <v>1.04835861790064</v>
+        <v>1.036296448707825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054250918044606</v>
+        <v>1.048823998779227</v>
       </c>
       <c r="J6">
-        <v>1.044481040900229</v>
+        <v>1.038934355014591</v>
       </c>
       <c r="K6">
-        <v>1.052479548315599</v>
+        <v>1.043170336642313</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.038040254924793</v>
       </c>
       <c r="M6">
-        <v>1.057660161934745</v>
+        <v>1.045725608298245</v>
       </c>
       <c r="N6">
-        <v>1.045964323781957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016746931200948</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044761129946757</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041609552548894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025060819252932</v>
+        <v>1.019416715468149</v>
       </c>
       <c r="D7">
-        <v>1.042223095649458</v>
+        <v>1.032966942556647</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.027430272697585</v>
       </c>
       <c r="F7">
-        <v>1.047305945213744</v>
+        <v>1.035279727094012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053916474301346</v>
+        <v>1.048564542038039</v>
       </c>
       <c r="J7">
-        <v>1.043838623281074</v>
+        <v>1.038330537200495</v>
       </c>
       <c r="K7">
-        <v>1.0518344543586</v>
+        <v>1.042680249913183</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.037205643263952</v>
       </c>
       <c r="M7">
-        <v>1.056862260389151</v>
+        <v>1.044967351050766</v>
       </c>
       <c r="N7">
-        <v>1.045320993856097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016541584305006</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044161023449178</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041267211022887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020055345888836</v>
+        <v>1.014545956569932</v>
       </c>
       <c r="D8">
-        <v>1.038397448052485</v>
+        <v>1.029781415198237</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.022771630879163</v>
       </c>
       <c r="F8">
-        <v>1.042834398153097</v>
+        <v>1.030962887276436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052476075413194</v>
+        <v>1.047434443402595</v>
       </c>
       <c r="J8">
-        <v>1.041097359763551</v>
+        <v>1.035740464159748</v>
       </c>
       <c r="K8">
-        <v>1.049081256758155</v>
+        <v>1.040572540823328</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.033651733547939</v>
       </c>
       <c r="M8">
-        <v>1.053463802462326</v>
+        <v>1.041739164764557</v>
       </c>
       <c r="N8">
-        <v>1.042575837429951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015659333836416</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041606138855872</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039781451917621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010869408504702</v>
+        <v>1.005580585604082</v>
       </c>
       <c r="D9">
-        <v>1.031401088227644</v>
+        <v>1.0239385456737</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.014272788405409</v>
       </c>
       <c r="F9">
-        <v>1.034668571191494</v>
+        <v>1.023095969321894</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049771166467214</v>
+        <v>1.045281087633326</v>
       </c>
       <c r="J9">
-        <v>1.036044093377433</v>
+        <v>1.030937806469868</v>
       </c>
       <c r="K9">
-        <v>1.044004450020256</v>
+        <v>1.036654819234413</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.027138467370294</v>
       </c>
       <c r="M9">
-        <v>1.047223146353427</v>
+        <v>1.035825123461596</v>
       </c>
       <c r="N9">
-        <v>1.037515394825947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014021059693219</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036925563635723</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037008194322759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004476802004161</v>
+        <v>0.9994133469618142</v>
       </c>
       <c r="D10">
-        <v>1.026551351553889</v>
+        <v>1.019953032803079</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.008630816697875</v>
       </c>
       <c r="F10">
-        <v>1.029015441420122</v>
+        <v>1.017901136985065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047849129126162</v>
+        <v>1.043777361428884</v>
       </c>
       <c r="J10">
-        <v>1.032513919441234</v>
+        <v>1.02765026000635</v>
       </c>
       <c r="K10">
-        <v>1.040457209005214</v>
+        <v>1.033971138064649</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.022845968234287</v>
       </c>
       <c r="M10">
-        <v>1.042879856708946</v>
+        <v>1.031954531840725</v>
       </c>
       <c r="N10">
-        <v>1.033980207637842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012905073734608</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033913952832228</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035127474901681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001639573780432</v>
+        <v>0.9972826245581774</v>
       </c>
       <c r="D11">
-        <v>1.024404040157788</v>
+        <v>1.018649872126497</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.007995488781334</v>
       </c>
       <c r="F11">
-        <v>1.026513980384534</v>
+        <v>1.017493394947321</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046987107355801</v>
+        <v>1.043394222243145</v>
       </c>
       <c r="J11">
-        <v>1.030944303278536</v>
+        <v>1.026768888105199</v>
       </c>
       <c r="K11">
-        <v>1.038879953761087</v>
+        <v>1.033228445866582</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.022768180826058</v>
       </c>
       <c r="M11">
-        <v>1.040952624402937</v>
+        <v>1.03209278355202</v>
       </c>
       <c r="N11">
-        <v>1.032408362440156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012646552245687</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034461603565829</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034635216573339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000574811895176</v>
+        <v>0.9967106844855916</v>
       </c>
       <c r="D12">
-        <v>1.02359901912156</v>
+        <v>1.01832833967643</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.008462468921933</v>
       </c>
       <c r="F12">
-        <v>1.025576411924422</v>
+        <v>1.018045663077515</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046662297419655</v>
+        <v>1.043357342853966</v>
       </c>
       <c r="J12">
-        <v>1.030354864556711</v>
+        <v>1.026654909403863</v>
       </c>
       <c r="K12">
-        <v>1.038287647268802</v>
+        <v>1.033112624760723</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.023429317611217</v>
       </c>
       <c r="M12">
-        <v>1.040229482089712</v>
+        <v>1.032835114861596</v>
       </c>
       <c r="N12">
-        <v>1.031818086647736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012639485300576</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035376324395898</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034553327238643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000803707945904</v>
+        <v>0.9973123814978778</v>
       </c>
       <c r="D13">
-        <v>1.023772039387025</v>
+        <v>1.018755878199768</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.009815318245502</v>
       </c>
       <c r="F13">
-        <v>1.025777910298026</v>
+        <v>1.01938878494627</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046732181581321</v>
+        <v>1.043596815523784</v>
       </c>
       <c r="J13">
-        <v>1.030481595548729</v>
+        <v>1.02713788444454</v>
       </c>
       <c r="K13">
-        <v>1.038414994656822</v>
+        <v>1.033489497615605</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.024713446840291</v>
       </c>
       <c r="M13">
-        <v>1.040384932911373</v>
+        <v>1.034110900955827</v>
       </c>
       <c r="N13">
-        <v>1.031944997612299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012832384331032</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036662442732925</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034817295353101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001551785324885</v>
+        <v>0.9982635780584456</v>
       </c>
       <c r="D14">
-        <v>1.024337649911392</v>
+        <v>1.019394823018656</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.011149970503181</v>
       </c>
       <c r="F14">
-        <v>1.026436654481141</v>
+        <v>1.020676033954928</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046960353509115</v>
+        <v>1.043889203192197</v>
       </c>
       <c r="J14">
-        <v>1.030895712414616</v>
+        <v>1.02774453063997</v>
       </c>
       <c r="K14">
-        <v>1.038831126420798</v>
+        <v>1.033976523137414</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.025881331327492</v>
       </c>
       <c r="M14">
-        <v>1.040892999512355</v>
+        <v>1.035234759423172</v>
       </c>
       <c r="N14">
-        <v>1.032359702571636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013057661027319</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037724458506126</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035163063501322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002011242309596</v>
+        <v>0.9987560061342322</v>
       </c>
       <c r="D15">
-        <v>1.024685149507483</v>
+        <v>1.01971981028297</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>1.011689208632215</v>
       </c>
       <c r="F15">
-        <v>1.026841402445074</v>
+        <v>1.021186552509551</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047100321546417</v>
+        <v>1.044024498060932</v>
       </c>
       <c r="J15">
-        <v>1.031150005941133</v>
+        <v>1.028029225683819</v>
       </c>
       <c r="K15">
-        <v>1.039086657603276</v>
+        <v>1.034209264181429</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>1.026323277632269</v>
       </c>
       <c r="M15">
-        <v>1.04120506224999</v>
+        <v>1.035649912062972</v>
       </c>
       <c r="N15">
-        <v>1.032614357224128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013158963149019</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038090182698579</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035333490410352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004663600260576</v>
+        <v>1.001241157250162</v>
       </c>
       <c r="D16">
-        <v>1.026692838742165</v>
+        <v>1.021317331738114</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.013812711531171</v>
       </c>
       <c r="F16">
-        <v>1.02918029528963</v>
+        <v>1.023149450735466</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047905699370882</v>
+        <v>1.044623679134344</v>
       </c>
       <c r="J16">
-        <v>1.032617204326013</v>
+        <v>1.029328990097188</v>
       </c>
       <c r="K16">
-        <v>1.040560996221466</v>
+        <v>1.035276494527974</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>1.027901013891559</v>
       </c>
       <c r="M16">
-        <v>1.043006755654318</v>
+        <v>1.03707745778211</v>
       </c>
       <c r="N16">
-        <v>1.034083639199005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013595185899049</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039179747934031</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036091226245135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006308490932385</v>
+        <v>1.002653456582648</v>
       </c>
       <c r="D17">
-        <v>1.027939326584221</v>
+        <v>1.022212140151153</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.0147466872865</v>
       </c>
       <c r="F17">
-        <v>1.030632818618109</v>
+        <v>1.023979557735141</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048402822724872</v>
+        <v>1.044929486233217</v>
       </c>
       <c r="J17">
-        <v>1.033526383228117</v>
+        <v>1.030010046875549</v>
       </c>
       <c r="K17">
-        <v>1.041474592215019</v>
+        <v>1.035841605075197</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>1.028501001430922</v>
       </c>
       <c r="M17">
-        <v>1.044124247224414</v>
+        <v>1.037579807992389</v>
       </c>
       <c r="N17">
-        <v>1.034994109239434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013812326346134</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039447628967856</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036493367615529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007261287139047</v>
+        <v>1.003260687370892</v>
       </c>
       <c r="D18">
-        <v>1.028661835105652</v>
+        <v>1.022568080480499</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>1.014663080051347</v>
       </c>
       <c r="F18">
-        <v>1.031474902754358</v>
+        <v>1.023823325109778</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048689924485754</v>
+        <v>1.045001399781056</v>
       </c>
       <c r="J18">
-        <v>1.034052750927869</v>
+        <v>1.030201073319269</v>
       </c>
       <c r="K18">
-        <v>1.042003511802293</v>
+        <v>1.036008307306667</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>1.028233420295661</v>
       </c>
       <c r="M18">
-        <v>1.044771589109356</v>
+        <v>1.037243128502674</v>
       </c>
       <c r="N18">
-        <v>1.035521224441695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01385229122219</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038943414039825</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036599599204283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007585054183655</v>
+        <v>1.003159498852894</v>
       </c>
       <c r="D19">
-        <v>1.028907429503874</v>
+        <v>1.02246191439184</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.013654314641036</v>
       </c>
       <c r="F19">
-        <v>1.03176116904034</v>
+        <v>1.02276570872864</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048787337594033</v>
+        <v>1.044878145161569</v>
       </c>
       <c r="J19">
-        <v>1.034231567594045</v>
+        <v>1.029969740646366</v>
       </c>
       <c r="K19">
-        <v>1.042183194228614</v>
+        <v>1.035841344588421</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.027178144525061</v>
       </c>
       <c r="M19">
-        <v>1.044991565890712</v>
+        <v>1.036140215222247</v>
       </c>
       <c r="N19">
-        <v>1.035700295048048</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013743975129845</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037745064816562</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036487944509268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00613270008882</v>
+        <v>1.001045544089539</v>
       </c>
       <c r="D20">
-        <v>1.027806062650427</v>
+        <v>1.021024718926544</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.010113925308324</v>
       </c>
       <c r="F20">
-        <v>1.030477511639009</v>
+        <v>1.019266148331476</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048349783129604</v>
+        <v>1.044192668634733</v>
       </c>
       <c r="J20">
-        <v>1.0334292463269</v>
+        <v>1.028536221176256</v>
       </c>
       <c r="K20">
-        <v>1.041376983888987</v>
+        <v>1.034707681029793</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.02398123467185</v>
       </c>
       <c r="M20">
-        <v>1.044004815545038</v>
+        <v>1.03297847914516</v>
       </c>
       <c r="N20">
-        <v>1.034896834392676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013210654925827</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034713696507731</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035690322970452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001331799889646</v>
+        <v>0.9962945836651622</v>
       </c>
       <c r="D21">
-        <v>1.024171298875135</v>
+        <v>1.017947952652563</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.005538842006771</v>
       </c>
       <c r="F21">
-        <v>1.026242906001371</v>
+        <v>1.015019358087242</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046893291209204</v>
+        <v>1.042991230534923</v>
       </c>
       <c r="J21">
-        <v>1.030773944436657</v>
+        <v>1.025948047905202</v>
       </c>
       <c r="K21">
-        <v>1.038708765881301</v>
+        <v>1.032597090971189</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.020416033682871</v>
       </c>
       <c r="M21">
-        <v>1.040743589982701</v>
+        <v>1.02972166357545</v>
       </c>
       <c r="N21">
-        <v>1.032237761669181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012324394546108</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032095043753621</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034201287135756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,81 +1493,105 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9982500164840243</v>
+        <v>0.9932675084493983</v>
       </c>
       <c r="D22">
-        <v>1.021842922039417</v>
+        <v>1.015989927512846</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.002719645980115</v>
       </c>
       <c r="F22">
-        <v>1.023531565373549</v>
+        <v>1.012415777533142</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045950748512761</v>
+        <v>1.042220613323436</v>
       </c>
       <c r="J22">
-        <v>1.029067210589283</v>
+        <v>1.024306068017717</v>
       </c>
       <c r="K22">
-        <v>1.036993739940655</v>
+        <v>1.031251139462232</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.018237417996098</v>
       </c>
       <c r="M22">
-        <v>1.03865083977226</v>
+        <v>1.027745223733037</v>
       </c>
       <c r="N22">
-        <v>1.030528604063979</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011762512230589</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030530803857958</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033236122839466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9998898979921113</v>
+        <v>0.9948669223326215</v>
       </c>
       <c r="D23">
-        <v>1.023081424947925</v>
+        <v>1.017017316506303</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.004213165343855</v>
       </c>
       <c r="F23">
-        <v>1.024973656362285</v>
+        <v>1.013795646395801</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046452997948481</v>
+        <v>1.042623695844929</v>
       </c>
       <c r="J23">
-        <v>1.029975599564773</v>
+        <v>1.025169148964905</v>
       </c>
       <c r="K23">
-        <v>1.037906538412891</v>
+        <v>1.031953845574153</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.019390729975759</v>
       </c>
       <c r="M23">
-        <v>1.03976435498491</v>
+        <v>1.028792074642839</v>
       </c>
       <c r="N23">
-        <v>1.031438283056007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012056113634764</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031359327340972</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033723321573695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006212152890352</v>
+        <v>1.001049003353158</v>
       </c>
       <c r="D24">
-        <v>1.0278662929153</v>
+        <v>1.02101083176622</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.009999568600191</v>
       </c>
       <c r="F24">
-        <v>1.030547704061594</v>
+        <v>1.01914318330613</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048373758273311</v>
+        <v>1.0441727605875</v>
       </c>
       <c r="J24">
-        <v>1.033473150472278</v>
+        <v>1.028506732463649</v>
       </c>
       <c r="K24">
-        <v>1.041421101127293</v>
+        <v>1.034678753854389</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.023853327102674</v>
       </c>
       <c r="M24">
-        <v>1.044058795379544</v>
+        <v>1.032842261148563</v>
       </c>
       <c r="N24">
-        <v>1.034940800886976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013194515253886</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034564812398427</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035642458289089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013289795694968</v>
+        <v>1.007963075249015</v>
       </c>
       <c r="D25">
-        <v>1.033241438982433</v>
+        <v>1.025498688988316</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.016514167689112</v>
       </c>
       <c r="F25">
-        <v>1.036815236905446</v>
+        <v>1.02516891759169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050490872699154</v>
+        <v>1.045869210351634</v>
       </c>
       <c r="J25">
-        <v>1.037378035859844</v>
+        <v>1.032225390167266</v>
       </c>
       <c r="K25">
-        <v>1.045344744796787</v>
+        <v>1.037713658211552</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.028861419512497</v>
       </c>
       <c r="M25">
-        <v>1.048867713889032</v>
+        <v>1.037388690169957</v>
       </c>
       <c r="N25">
-        <v>1.038851231659689</v>
+        <v>1.014462965906669</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03816302695347</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037785428245906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013252135332431</v>
+        <v>1.012559391597557</v>
       </c>
       <c r="D2">
-        <v>1.028927723420231</v>
+        <v>1.027799974090893</v>
       </c>
       <c r="E2">
-        <v>1.021546533605827</v>
+        <v>1.021408616980669</v>
       </c>
       <c r="F2">
-        <v>1.029828709046073</v>
+        <v>1.02960813531481</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047122670283384</v>
+        <v>1.046626983508604</v>
       </c>
       <c r="J2">
-        <v>1.035043575192102</v>
+        <v>1.034370834489317</v>
       </c>
       <c r="K2">
-        <v>1.039998239211052</v>
+        <v>1.038885134536871</v>
       </c>
       <c r="L2">
-        <v>1.032713635399074</v>
+        <v>1.032577540133739</v>
       </c>
       <c r="M2">
-        <v>1.040887553718148</v>
+        <v>1.040669834875073</v>
       </c>
       <c r="N2">
-        <v>1.015419798350092</v>
+        <v>1.016203731571937</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04093214652964</v>
+        <v>1.040759836745632</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039352498146206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038574204349317</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022379756929256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017006947204762</v>
+        <v>1.016130688028134</v>
       </c>
       <c r="D3">
-        <v>1.031381077580564</v>
+        <v>1.030040349644987</v>
       </c>
       <c r="E3">
-        <v>1.025129077279767</v>
+        <v>1.024935571680012</v>
       </c>
       <c r="F3">
-        <v>1.033147356757551</v>
+        <v>1.032863535514822</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048002638325503</v>
+        <v>1.047395814363397</v>
       </c>
       <c r="J3">
-        <v>1.037044483352417</v>
+        <v>1.036191068866505</v>
       </c>
       <c r="K3">
-        <v>1.041627579299477</v>
+        <v>1.040302762166253</v>
       </c>
       <c r="L3">
-        <v>1.03545021434274</v>
+        <v>1.035259036808719</v>
       </c>
       <c r="M3">
-        <v>1.043372975599907</v>
+        <v>1.043092504036388</v>
       </c>
       <c r="N3">
-        <v>1.016101702318027</v>
+        <v>1.016695298061088</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042899187454558</v>
+        <v>1.042677213718839</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040501918872094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039573649583942</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022660931133839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019391142343555</v>
+        <v>1.018399589835055</v>
       </c>
       <c r="D4">
-        <v>1.03294274360716</v>
+        <v>1.031467610672826</v>
       </c>
       <c r="E4">
-        <v>1.02741211007619</v>
+        <v>1.027184065627404</v>
       </c>
       <c r="F4">
-        <v>1.03526316679809</v>
+        <v>1.034939747887711</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048553101457</v>
+        <v>1.047876090534306</v>
       </c>
       <c r="J4">
-        <v>1.038311499178294</v>
+        <v>1.037344061986976</v>
       </c>
       <c r="K4">
-        <v>1.042659194064703</v>
+        <v>1.041200522905132</v>
       </c>
       <c r="L4">
-        <v>1.037190579895159</v>
+        <v>1.036965110353797</v>
       </c>
       <c r="M4">
-        <v>1.044953839193447</v>
+        <v>1.044634004685175</v>
       </c>
       <c r="N4">
-        <v>1.016533522655809</v>
+        <v>1.017006762863759</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04415032977393</v>
+        <v>1.043897203434468</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041232251369976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040209418629885</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022836542901894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020386640329583</v>
+        <v>1.019347147212091</v>
       </c>
       <c r="D5">
-        <v>1.03359796297248</v>
+        <v>1.032066875564521</v>
       </c>
       <c r="E5">
-        <v>1.028365375086232</v>
+        <v>1.028123032778645</v>
       </c>
       <c r="F5">
-        <v>1.036146759999258</v>
+        <v>1.035806889771118</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048782612923963</v>
+        <v>1.048076339615538</v>
       </c>
       <c r="J5">
-        <v>1.038841326944698</v>
+        <v>1.037826365683134</v>
       </c>
       <c r="K5">
-        <v>1.043092248535057</v>
+        <v>1.041577797266391</v>
       </c>
       <c r="L5">
-        <v>1.037916767056092</v>
+        <v>1.037677086877785</v>
       </c>
       <c r="M5">
-        <v>1.045613485116806</v>
+        <v>1.045277280337201</v>
       </c>
       <c r="N5">
-        <v>1.016714570923716</v>
+        <v>1.017137423319104</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044672392481451</v>
+        <v>1.044406310420485</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041545611928367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040484050972075</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022910280828938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020557727904607</v>
+        <v>1.019509911968646</v>
       </c>
       <c r="D6">
-        <v>1.033713374008406</v>
+        <v>1.032172646884377</v>
       </c>
       <c r="E6">
-        <v>1.028526950340516</v>
+        <v>1.028282097453561</v>
       </c>
       <c r="F6">
-        <v>1.036296448707825</v>
+        <v>1.035953702383651</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048823998779227</v>
+        <v>1.048112645429447</v>
       </c>
       <c r="J6">
-        <v>1.038934355014591</v>
+        <v>1.037911141135418</v>
       </c>
       <c r="K6">
-        <v>1.043170336642313</v>
+        <v>1.041646274466427</v>
       </c>
       <c r="L6">
-        <v>1.038040254924793</v>
+        <v>1.03779807921009</v>
       </c>
       <c r="M6">
-        <v>1.045725608298245</v>
+        <v>1.045386541363714</v>
       </c>
       <c r="N6">
-        <v>1.016746931200948</v>
+        <v>1.017160818253159</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044761129946757</v>
+        <v>1.044492782726802</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041609552548894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040542066942</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022924280063277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019416715468149</v>
+        <v>1.018432927101266</v>
       </c>
       <c r="D7">
-        <v>1.032966942556647</v>
+        <v>1.031497053439033</v>
       </c>
       <c r="E7">
-        <v>1.027430272697585</v>
+        <v>1.027205454005754</v>
       </c>
       <c r="F7">
-        <v>1.035279727094012</v>
+        <v>1.034959197168567</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048564542038039</v>
+        <v>1.047891183355858</v>
       </c>
       <c r="J7">
-        <v>1.038330537200495</v>
+        <v>1.037370664749041</v>
       </c>
       <c r="K7">
-        <v>1.042680249913183</v>
+        <v>1.041226757537012</v>
       </c>
       <c r="L7">
-        <v>1.037205643263952</v>
+        <v>1.036983362089301</v>
       </c>
       <c r="M7">
-        <v>1.044967351050766</v>
+        <v>1.044650372174474</v>
       </c>
       <c r="N7">
-        <v>1.016541584305006</v>
+        <v>1.017041232255988</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044161023449178</v>
+        <v>1.043910157144049</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041267211022887</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040250043722289</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022844218752805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014545956569932</v>
+        <v>1.013817827983116</v>
       </c>
       <c r="D8">
-        <v>1.029781415198237</v>
+        <v>1.028600877712659</v>
       </c>
       <c r="E8">
-        <v>1.022771630879163</v>
+        <v>1.022626117404341</v>
       </c>
       <c r="F8">
-        <v>1.030962887276436</v>
+        <v>1.030730917448859</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047434443402595</v>
+        <v>1.046914239094662</v>
       </c>
       <c r="J8">
-        <v>1.035740464159748</v>
+        <v>1.035032658682895</v>
       </c>
       <c r="K8">
-        <v>1.040572540823328</v>
+        <v>1.039406882239646</v>
       </c>
       <c r="L8">
-        <v>1.033651733547939</v>
+        <v>1.033508083265842</v>
       </c>
       <c r="M8">
-        <v>1.041739164764557</v>
+        <v>1.041510106866049</v>
       </c>
       <c r="N8">
-        <v>1.015659333836416</v>
+        <v>1.016463404172975</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041606138855872</v>
+        <v>1.041424855142018</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039781451917621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038968269088022</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022488343539052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005580585604082</v>
+        <v>1.005302973850338</v>
       </c>
       <c r="D9">
-        <v>1.0239385456737</v>
+        <v>1.023274975434894</v>
       </c>
       <c r="E9">
-        <v>1.014272788405409</v>
+        <v>1.014267345355722</v>
       </c>
       <c r="F9">
-        <v>1.023095969321894</v>
+        <v>1.023020492489474</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045281087633326</v>
+        <v>1.045030921222489</v>
       </c>
       <c r="J9">
-        <v>1.030937806469868</v>
+        <v>1.030669850230421</v>
       </c>
       <c r="K9">
-        <v>1.036654819234413</v>
+        <v>1.036001390820352</v>
       </c>
       <c r="L9">
-        <v>1.027138467370294</v>
+        <v>1.027133109480729</v>
       </c>
       <c r="M9">
-        <v>1.035825123461596</v>
+        <v>1.035750801774587</v>
       </c>
       <c r="N9">
-        <v>1.014021059693219</v>
+        <v>1.015294195402352</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036925563635723</v>
+        <v>1.036866742707547</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037008194322759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036556914368892</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021797588104892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9994133469618142</v>
+        <v>0.9994927226342413</v>
       </c>
       <c r="D10">
-        <v>1.019953032803079</v>
+        <v>1.019678286736679</v>
       </c>
       <c r="E10">
-        <v>1.008630816697875</v>
+        <v>1.008743234770584</v>
       </c>
       <c r="F10">
-        <v>1.017901136985065</v>
+        <v>1.017951678031169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043777361428884</v>
+        <v>1.04373418713653</v>
       </c>
       <c r="J10">
-        <v>1.02765026000635</v>
+        <v>1.027726481523787</v>
       </c>
       <c r="K10">
-        <v>1.033971138064649</v>
+        <v>1.033701106582293</v>
       </c>
       <c r="L10">
-        <v>1.022845968234287</v>
+        <v>1.022956401645978</v>
       </c>
       <c r="M10">
-        <v>1.031954531840725</v>
+        <v>1.032004201445036</v>
       </c>
       <c r="N10">
-        <v>1.012905073734608</v>
+        <v>1.0146217164582</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033913952832228</v>
+        <v>1.03395326087837</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035127474901681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034948962649525</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021326717922103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9972826245581774</v>
+        <v>0.9975348961329724</v>
       </c>
       <c r="D11">
-        <v>1.018649872126497</v>
+        <v>1.018539061711107</v>
       </c>
       <c r="E11">
-        <v>1.007995488781334</v>
+        <v>1.008159995092087</v>
       </c>
       <c r="F11">
-        <v>1.017493394947321</v>
+        <v>1.017603066078202</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043394222243145</v>
+        <v>1.043442529382721</v>
       </c>
       <c r="J11">
-        <v>1.026768888105199</v>
+        <v>1.027010587109844</v>
       </c>
       <c r="K11">
-        <v>1.033228445866582</v>
+        <v>1.03311962721279</v>
       </c>
       <c r="L11">
-        <v>1.022768180826058</v>
+        <v>1.022929649253526</v>
       </c>
       <c r="M11">
-        <v>1.03209278355202</v>
+        <v>1.032200478126797</v>
       </c>
       <c r="N11">
-        <v>1.012646552245687</v>
+        <v>1.014688888166788</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034461603565829</v>
+        <v>1.034546788708029</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034635216573339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034573902741622</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021245975446222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9967106844855916</v>
+        <v>0.9970136388835515</v>
       </c>
       <c r="D12">
-        <v>1.01832833967643</v>
+        <v>1.018260693324723</v>
       </c>
       <c r="E12">
-        <v>1.008462468921933</v>
+        <v>1.008634670055775</v>
       </c>
       <c r="F12">
-        <v>1.018045663077515</v>
+        <v>1.018170447731213</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043357342853966</v>
+        <v>1.043429624948334</v>
       </c>
       <c r="J12">
-        <v>1.026654909403863</v>
+        <v>1.02694492684188</v>
       </c>
       <c r="K12">
-        <v>1.033112624760723</v>
+        <v>1.033046214494016</v>
       </c>
       <c r="L12">
-        <v>1.023429317611217</v>
+        <v>1.023598292255472</v>
       </c>
       <c r="M12">
-        <v>1.032835114861596</v>
+        <v>1.03295761826877</v>
       </c>
       <c r="N12">
-        <v>1.012639485300576</v>
+        <v>1.014795533247634</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035376324395898</v>
+        <v>1.035473190113347</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034553327238643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034521998612592</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021257869794292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9973123814978778</v>
+        <v>0.9975599960647208</v>
       </c>
       <c r="D13">
-        <v>1.018755878199768</v>
+        <v>1.018629958909554</v>
       </c>
       <c r="E13">
-        <v>1.009815318245502</v>
+        <v>1.009957091589303</v>
       </c>
       <c r="F13">
-        <v>1.01938878494627</v>
+        <v>1.019490860696921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043596815523784</v>
+        <v>1.043635347937049</v>
       </c>
       <c r="J13">
-        <v>1.02713788444454</v>
+        <v>1.027374981197205</v>
       </c>
       <c r="K13">
-        <v>1.033489497615605</v>
+        <v>1.033365869191886</v>
       </c>
       <c r="L13">
-        <v>1.024713446840291</v>
+        <v>1.024852581859967</v>
       </c>
       <c r="M13">
-        <v>1.034110900955827</v>
+        <v>1.034211123167103</v>
       </c>
       <c r="N13">
-        <v>1.012832384331032</v>
+        <v>1.014907231277791</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036662442732925</v>
+        <v>1.036741670308734</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034817295353101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034745264675721</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021345295423485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9982635780584456</v>
+        <v>0.9984248234506714</v>
       </c>
       <c r="D14">
-        <v>1.019394823018656</v>
+        <v>1.019182725498187</v>
       </c>
       <c r="E14">
-        <v>1.011149970503181</v>
+        <v>1.011254921794661</v>
       </c>
       <c r="F14">
-        <v>1.020676033954928</v>
+        <v>1.020745697818211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043889203192197</v>
+        <v>1.043878402405011</v>
       </c>
       <c r="J14">
-        <v>1.02774453063997</v>
+        <v>1.027899026692757</v>
       </c>
       <c r="K14">
-        <v>1.033976523137414</v>
+        <v>1.033768236186684</v>
       </c>
       <c r="L14">
-        <v>1.025881331327492</v>
+        <v>1.0259843575693</v>
       </c>
       <c r="M14">
-        <v>1.035234759423172</v>
+        <v>1.035303176222553</v>
       </c>
       <c r="N14">
-        <v>1.013057661027319</v>
+        <v>1.014988763491214</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037724458506126</v>
+        <v>1.037778535995404</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035163063501322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035031309053155</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021441099187281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9987560061342322</v>
+        <v>0.9988735940847493</v>
       </c>
       <c r="D15">
-        <v>1.01971981028297</v>
+        <v>1.019464939939799</v>
       </c>
       <c r="E15">
-        <v>1.011689208632215</v>
+        <v>1.011777861176762</v>
       </c>
       <c r="F15">
-        <v>1.021186552509551</v>
+        <v>1.021240446983632</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044024498060932</v>
+        <v>1.043989400552379</v>
       </c>
       <c r="J15">
-        <v>1.028029225683819</v>
+        <v>1.028141935024335</v>
       </c>
       <c r="K15">
-        <v>1.034209264181429</v>
+        <v>1.033958938096649</v>
       </c>
       <c r="L15">
-        <v>1.026323277632269</v>
+        <v>1.026410317415797</v>
       </c>
       <c r="M15">
-        <v>1.035649912062972</v>
+        <v>1.035702849570123</v>
       </c>
       <c r="N15">
-        <v>1.013158963149019</v>
+        <v>1.015014943184019</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038090182698579</v>
+        <v>1.038132024065538</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035333490410352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035172580989384</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021483164278963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001241157250162</v>
+        <v>1.001154657410577</v>
       </c>
       <c r="D16">
-        <v>1.021317331738114</v>
+        <v>1.020862920439085</v>
       </c>
       <c r="E16">
-        <v>1.013812711531171</v>
+        <v>1.013835060726099</v>
       </c>
       <c r="F16">
-        <v>1.023149450735466</v>
+        <v>1.023132272129432</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044623679134344</v>
+        <v>1.044477116053122</v>
       </c>
       <c r="J16">
-        <v>1.029328990097188</v>
+        <v>1.029245899623134</v>
       </c>
       <c r="K16">
-        <v>1.035276494527974</v>
+        <v>1.034829832987963</v>
       </c>
       <c r="L16">
-        <v>1.027901013891559</v>
+        <v>1.027922974827673</v>
       </c>
       <c r="M16">
-        <v>1.03707745778211</v>
+        <v>1.037060570634602</v>
       </c>
       <c r="N16">
-        <v>1.013595185899049</v>
+        <v>1.015099384796678</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039179747934031</v>
+        <v>1.039166400086795</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036091226245135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035791798701247</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021656060357392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002653456582648</v>
+        <v>1.002466690725567</v>
       </c>
       <c r="D17">
-        <v>1.022212140151153</v>
+        <v>1.02165763564356</v>
       </c>
       <c r="E17">
-        <v>1.0147466872865</v>
+        <v>1.014740253939667</v>
       </c>
       <c r="F17">
-        <v>1.023979557735141</v>
+        <v>1.02392834753869</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044929486233217</v>
+        <v>1.044728295179884</v>
       </c>
       <c r="J17">
-        <v>1.030010046875549</v>
+        <v>1.029830406558974</v>
       </c>
       <c r="K17">
-        <v>1.035841605075197</v>
+        <v>1.035296293112681</v>
       </c>
       <c r="L17">
-        <v>1.028501001430922</v>
+        <v>1.028494676694794</v>
       </c>
       <c r="M17">
-        <v>1.037579807992389</v>
+        <v>1.037529442453376</v>
       </c>
       <c r="N17">
-        <v>1.013812326346134</v>
+        <v>1.015151850433305</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039447628967856</v>
+        <v>1.039407815339</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036493367615529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036124437810123</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02174047857567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003260687370892</v>
+        <v>1.003040991141325</v>
       </c>
       <c r="D18">
-        <v>1.022568080480499</v>
+        <v>1.021980859790374</v>
       </c>
       <c r="E18">
-        <v>1.014663080051347</v>
+        <v>1.014652046121959</v>
       </c>
       <c r="F18">
-        <v>1.023823325109778</v>
+        <v>1.023762131067508</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045001399781056</v>
+        <v>1.044783448506622</v>
       </c>
       <c r="J18">
-        <v>1.030201073319269</v>
+        <v>1.029989603724996</v>
       </c>
       <c r="K18">
-        <v>1.036008307306667</v>
+        <v>1.035430663114562</v>
       </c>
       <c r="L18">
-        <v>1.028233420295661</v>
+        <v>1.02822256980539</v>
       </c>
       <c r="M18">
-        <v>1.037243128502674</v>
+        <v>1.037182928625315</v>
       </c>
       <c r="N18">
-        <v>1.01385229122219</v>
+        <v>1.015136122260424</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038943414039825</v>
+        <v>1.038895816493398</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036599599204283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036206673910234</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021748366965474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003159498852894</v>
+        <v>1.002957939687397</v>
       </c>
       <c r="D19">
-        <v>1.02246191439184</v>
+        <v>1.021895314945091</v>
       </c>
       <c r="E19">
-        <v>1.013654314641036</v>
+        <v>1.013656671580566</v>
       </c>
       <c r="F19">
-        <v>1.02276570872864</v>
+        <v>1.022712651379913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044878145161569</v>
+        <v>1.044672637136515</v>
       </c>
       <c r="J19">
-        <v>1.029969740646366</v>
+        <v>1.029775686803424</v>
       </c>
       <c r="K19">
-        <v>1.035841344588421</v>
+        <v>1.035283938266055</v>
       </c>
       <c r="L19">
-        <v>1.027178144525061</v>
+        <v>1.027180462390687</v>
       </c>
       <c r="M19">
-        <v>1.036140215222247</v>
+        <v>1.036088017522157</v>
       </c>
       <c r="N19">
-        <v>1.013743975129845</v>
+        <v>1.015046406950437</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037745064816562</v>
+        <v>1.037703780720067</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036487944509268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036109953612844</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021694046017639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001045544089539</v>
+        <v>1.001003070167356</v>
       </c>
       <c r="D20">
-        <v>1.021024718926544</v>
+        <v>1.020626965701414</v>
       </c>
       <c r="E20">
-        <v>1.010113925308324</v>
+        <v>1.010182314737632</v>
       </c>
       <c r="F20">
-        <v>1.019266148331476</v>
+        <v>1.019272533495124</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044192668634733</v>
+        <v>1.044080970899001</v>
       </c>
       <c r="J20">
-        <v>1.028536221176256</v>
+        <v>1.0284953798268</v>
       </c>
       <c r="K20">
-        <v>1.034707681029793</v>
+        <v>1.034316559004922</v>
       </c>
       <c r="L20">
-        <v>1.02398123467185</v>
+        <v>1.024048452576674</v>
       </c>
       <c r="M20">
-        <v>1.03297847914516</v>
+        <v>1.032984757438214</v>
       </c>
       <c r="N20">
-        <v>1.013210654925827</v>
+        <v>1.014732109741775</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034713696507731</v>
+        <v>1.034718665147302</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035690322970452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035430293426802</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021455847267719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9962945836651622</v>
+        <v>0.9966587546864271</v>
       </c>
       <c r="D21">
-        <v>1.017947952652563</v>
+        <v>1.01794889689849</v>
       </c>
       <c r="E21">
-        <v>1.005538842006771</v>
+        <v>1.005762915898307</v>
       </c>
       <c r="F21">
-        <v>1.015019358087242</v>
+        <v>1.015174657238608</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042991230534923</v>
+        <v>1.043105322408641</v>
       </c>
       <c r="J21">
-        <v>1.025948047905202</v>
+        <v>1.026296839286307</v>
       </c>
       <c r="K21">
-        <v>1.032597090971189</v>
+        <v>1.032598018138953</v>
       </c>
       <c r="L21">
-        <v>1.020416033682871</v>
+        <v>1.020635924458189</v>
       </c>
       <c r="M21">
-        <v>1.02972166357545</v>
+        <v>1.029874133324931</v>
       </c>
       <c r="N21">
-        <v>1.012324394546108</v>
+        <v>1.014559810300255</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032095043753621</v>
+        <v>1.032215714756057</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034201287135756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034218781795723</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021103606708941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,105 +1679,123 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9932675084493983</v>
+        <v>0.9938901090734666</v>
       </c>
       <c r="D22">
-        <v>1.015989927512846</v>
+        <v>1.016244564699382</v>
       </c>
       <c r="E22">
-        <v>1.002719645980115</v>
+        <v>1.003046187437098</v>
       </c>
       <c r="F22">
-        <v>1.012415777533142</v>
+        <v>1.012666576869733</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042220613323436</v>
+        <v>1.042478442070628</v>
       </c>
       <c r="J22">
-        <v>1.024306068017717</v>
+        <v>1.024900833619557</v>
       </c>
       <c r="K22">
-        <v>1.031251139462232</v>
+        <v>1.031500939308494</v>
       </c>
       <c r="L22">
-        <v>1.018237417996098</v>
+        <v>1.018557539334573</v>
       </c>
       <c r="M22">
-        <v>1.027745223733037</v>
+        <v>1.027991214479921</v>
       </c>
       <c r="N22">
-        <v>1.011762512230589</v>
+        <v>1.014444236622493</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030530803857958</v>
+        <v>1.030725491756033</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033236122839466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033428285097652</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020876934691294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9948669223326215</v>
+        <v>0.9953381159972867</v>
       </c>
       <c r="D23">
-        <v>1.017017316506303</v>
+        <v>1.017126608627745</v>
       </c>
       <c r="E23">
-        <v>1.004213165343855</v>
+        <v>1.004477891618802</v>
       </c>
       <c r="F23">
-        <v>1.013795646395801</v>
+        <v>1.013990205556645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042623695844929</v>
+        <v>1.042798071288067</v>
       </c>
       <c r="J23">
-        <v>1.025169148964905</v>
+        <v>1.025619898244262</v>
       </c>
       <c r="K23">
-        <v>1.031953845574153</v>
+        <v>1.032061114348593</v>
       </c>
       <c r="L23">
-        <v>1.019390729975759</v>
+        <v>1.019650391415494</v>
       </c>
       <c r="M23">
-        <v>1.028792074642839</v>
+        <v>1.028983002352917</v>
       </c>
       <c r="N23">
-        <v>1.012056113634764</v>
+        <v>1.014458313971597</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031359327340972</v>
+        <v>1.031510435754429</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033723321573695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.0338137656793</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020990001036996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001049003353158</v>
+        <v>1.001007720447995</v>
       </c>
       <c r="D24">
-        <v>1.02101083176622</v>
+        <v>1.020614435222668</v>
       </c>
       <c r="E24">
-        <v>1.009999568600191</v>
+        <v>1.010069431192886</v>
       </c>
       <c r="F24">
-        <v>1.01914318330613</v>
+        <v>1.0191503729389</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.0441727605875</v>
+        <v>1.044062108201714</v>
       </c>
       <c r="J24">
-        <v>1.028506732463649</v>
+        <v>1.028467034105842</v>
       </c>
       <c r="K24">
-        <v>1.034678753854389</v>
+        <v>1.034288957643362</v>
       </c>
       <c r="L24">
-        <v>1.023853327102674</v>
+        <v>1.023921994126392</v>
       </c>
       <c r="M24">
-        <v>1.032842261148563</v>
+        <v>1.032849330563111</v>
       </c>
       <c r="N24">
-        <v>1.013194515253886</v>
+        <v>1.014716147396723</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034564812398427</v>
+        <v>1.034570407412603</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035642458289089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035380693707224</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021444573029066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007963075249015</v>
+        <v>1.00755251104354</v>
       </c>
       <c r="D25">
-        <v>1.025498688988316</v>
+        <v>1.024688236961192</v>
       </c>
       <c r="E25">
-        <v>1.016514167689112</v>
+        <v>1.01646537723448</v>
       </c>
       <c r="F25">
-        <v>1.02516891759169</v>
+        <v>1.02504659237526</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045869210351634</v>
+        <v>1.045540904097461</v>
       </c>
       <c r="J25">
-        <v>1.032225390167266</v>
+        <v>1.031828349194861</v>
       </c>
       <c r="K25">
-        <v>1.037713658211552</v>
+        <v>1.036915018020001</v>
       </c>
       <c r="L25">
-        <v>1.028861419512497</v>
+        <v>1.028813355536258</v>
       </c>
       <c r="M25">
-        <v>1.037388690169957</v>
+        <v>1.037268147704179</v>
       </c>
       <c r="N25">
-        <v>1.014462965906669</v>
+        <v>1.015575810265573</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03816302695347</v>
+        <v>1.038067625356944</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037785428245906</v>
+        <v>1.037234279734882</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021986831432539</v>
       </c>
     </row>
   </sheetData>
